--- a/Code/Results/Cases/Case_2_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9864259546024529</v>
+        <v>0.9864259546024524</v>
       </c>
       <c r="D2">
-        <v>1.007457759185718</v>
+        <v>1.007457759185717</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9959185386132563</v>
+        <v>0.9959185386132556</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,7 +442,7 @@
         <v>1.009020384276295</v>
       </c>
       <c r="K2">
-        <v>1.018814164216754</v>
+        <v>1.018814164216753</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
@@ -459,10 +459,10 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9934241417994746</v>
+        <v>0.9934241417994755</v>
       </c>
       <c r="D3">
-        <v>1.012591580992654</v>
+        <v>1.012591580992655</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
@@ -477,10 +477,10 @@
         <v>1.042461607610388</v>
       </c>
       <c r="J3">
-        <v>1.014095690843093</v>
+        <v>1.014095690843094</v>
       </c>
       <c r="K3">
-        <v>1.023065845864965</v>
+        <v>1.023065845864966</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
@@ -497,7 +497,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.997812969023022</v>
+        <v>0.9978129690230226</v>
       </c>
       <c r="D4">
         <v>1.015812747802275</v>
@@ -506,7 +506,7 @@
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.008004169071404</v>
+        <v>1.008004169071405</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,7 +515,7 @@
         <v>1.043910967103824</v>
       </c>
       <c r="J4">
-        <v>1.017272785211947</v>
+        <v>1.017272785211948</v>
       </c>
       <c r="K4">
         <v>1.025724000607679</v>
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9996264810701186</v>
+        <v>0.9996264810701174</v>
       </c>
       <c r="D5">
-        <v>1.017144029430977</v>
+        <v>1.017144029430976</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.009930894678021</v>
+        <v>1.009930894678019</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044505929559279</v>
+        <v>1.044505929559278</v>
       </c>
       <c r="J5">
-        <v>1.018584143539549</v>
+        <v>1.018584143539548</v>
       </c>
       <c r="K5">
-        <v>1.026820326671759</v>
+        <v>1.026820326671758</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.019689290238083</v>
+        <v>1.019689290238081</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9999291781163803</v>
+        <v>0.9999291781163817</v>
       </c>
       <c r="D6">
-        <v>1.017366248526514</v>
+        <v>1.017366248526515</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.01025254416045</v>
+        <v>1.010252544160451</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.044605002920201</v>
       </c>
       <c r="J6">
-        <v>1.018802938090151</v>
+        <v>1.018802938090153</v>
       </c>
       <c r="K6">
-        <v>1.027003193801578</v>
+        <v>1.027003193801579</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.019970054841822</v>
+        <v>1.019970054841823</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9978373229183408</v>
+        <v>0.997837322918341</v>
       </c>
       <c r="D7">
         <v>1.015830624876572</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
         <v>1.008030039575494</v>
@@ -635,7 +635,7 @@
         <v>1.0257387315435</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
         <v>1.018029536398384</v>
@@ -649,22 +649,22 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9888210600985865</v>
+        <v>0.9888210600985867</v>
       </c>
       <c r="D8">
         <v>1.009214391993139</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.9984589227941645</v>
+        <v>0.9984589227941641</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040927974639994</v>
+        <v>1.040927974639993</v>
       </c>
       <c r="J8">
         <v>1.010758585180288</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9717732912955926</v>
+        <v>0.9717732912955924</v>
       </c>
       <c r="D9">
-        <v>0.9967230166483587</v>
+        <v>0.9967230166483584</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9803942380808945</v>
+        <v>0.9803942380808944</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.035145038497202</v>
       </c>
       <c r="J9">
-        <v>0.9983637533162791</v>
+        <v>0.9983637533162789</v>
       </c>
       <c r="K9">
         <v>1.00986948531253</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.9938136212993545</v>
+        <v>0.9938136212993546</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9594829986025344</v>
+        <v>0.9594829986025347</v>
       </c>
       <c r="D10">
-        <v>0.987739320258528</v>
+        <v>0.9877393202585285</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="F10">
-        <v>0.9673928201674985</v>
+        <v>0.9673928201674989</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030893838974047</v>
+        <v>1.030893838974048</v>
       </c>
       <c r="J10">
-        <v>0.9894017731535947</v>
+        <v>0.9894017731535951</v>
       </c>
       <c r="K10">
         <v>1.002333530777509</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689356</v>
       </c>
       <c r="M10">
-        <v>0.9823768681576974</v>
+        <v>0.982376868157698</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9539033831682237</v>
+        <v>0.9539033831682232</v>
       </c>
       <c r="D11">
-        <v>0.9836683538959374</v>
+        <v>0.9836683538959373</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="F11">
-        <v>0.9614955866589325</v>
+        <v>0.9614955866589319</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.028945580740521</v>
       </c>
       <c r="J11">
-        <v>0.9853280393758289</v>
+        <v>0.9853280393758286</v>
       </c>
       <c r="K11">
-        <v>0.9989049761597745</v>
+        <v>0.998904976159774</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9771821002533176</v>
+        <v>0.9771821002533171</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9517883163230697</v>
+        <v>0.9517883163230693</v>
       </c>
       <c r="D12">
-        <v>0.9821265222499759</v>
+        <v>0.9821265222499755</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9592609026918054</v>
+        <v>0.9592609026918051</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.028204424182274</v>
       </c>
       <c r="J12">
-        <v>0.9837831418474402</v>
+        <v>0.98378314184744</v>
       </c>
       <c r="K12">
-        <v>0.9976043523842409</v>
+        <v>0.9976043523842406</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.975212555025874</v>
+        <v>0.9752125550258737</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9522439977977646</v>
+        <v>0.9522439977977631</v>
       </c>
       <c r="D13">
-        <v>0.9824586380125716</v>
+        <v>0.9824586380125701</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9597423198750075</v>
+        <v>0.9597423198750065</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.028364219641639</v>
       </c>
       <c r="J13">
-        <v>0.9841160112035026</v>
+        <v>0.9841160112035009</v>
       </c>
       <c r="K13">
-        <v>0.9978846067133883</v>
+        <v>0.9978846067133869</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9756369003039523</v>
+        <v>0.975636900303951</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9537294430064014</v>
+        <v>0.9537294430064007</v>
       </c>
       <c r="D14">
-        <v>0.9835415270462414</v>
+        <v>0.9835415270462408</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9613117935105102</v>
+        <v>0.9613117935105095</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028884681643348</v>
+        <v>1.028884681643347</v>
       </c>
       <c r="J14">
-        <v>0.9852010020035097</v>
+        <v>0.985201002003509</v>
       </c>
       <c r="K14">
-        <v>0.9987980332581022</v>
+        <v>0.9987980332581016</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9770201347259199</v>
+        <v>0.9770201347259193</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9546389136339537</v>
+        <v>0.9546389136339525</v>
       </c>
       <c r="D15">
-        <v>0.9842047153526151</v>
+        <v>0.9842047153526136</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9622728136292936</v>
+        <v>0.962272813629292</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.029202995062269</v>
       </c>
       <c r="J15">
-        <v>0.9858652083971995</v>
+        <v>0.9858652083971982</v>
       </c>
       <c r="K15">
-        <v>0.9993571611566648</v>
+        <v>0.9993571611566635</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9778669797767053</v>
+        <v>0.9778669797767039</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9598475533112324</v>
+        <v>0.9598475533112326</v>
       </c>
       <c r="D16">
-        <v>0.9880054778128795</v>
+        <v>0.9880054778128798</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.9677782348425185</v>
+        <v>0.9677782348425187</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031020763892127</v>
+        <v>1.031020763892128</v>
       </c>
       <c r="J16">
-        <v>0.9896678408147439</v>
+        <v>0.9896678408147442</v>
       </c>
       <c r="K16">
         <v>1.00255740177899</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>0.982716226286909</v>
+        <v>0.9827162262869091</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9630432325912263</v>
+        <v>0.9630432325912259</v>
       </c>
       <c r="D17">
-        <v>0.9903394790559288</v>
+        <v>0.9903394790559285</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9382760156855667</v>
       </c>
       <c r="F17">
-        <v>0.9711573603804875</v>
+        <v>0.9711573603804872</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.03213133948786</v>
       </c>
       <c r="J17">
-        <v>0.9919996187635726</v>
+        <v>0.9919996187635722</v>
       </c>
       <c r="K17">
         <v>1.004519039294998</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.985690738592836</v>
+        <v>0.9856907385928357</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9648826240628299</v>
+        <v>0.9648826240628292</v>
       </c>
       <c r="D18">
-        <v>0.9916835877085318</v>
+        <v>0.9916835877085309</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>0.97310283107975</v>
+        <v>0.9731028310797494</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.032768850647211</v>
       </c>
       <c r="J18">
-        <v>0.9933412720879649</v>
+        <v>0.9933412720879642</v>
       </c>
       <c r="K18">
-        <v>1.005647434152028</v>
+        <v>1.005647434152027</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9874025785937542</v>
+        <v>0.9874025785937535</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,13 +1067,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9655057448792204</v>
+        <v>0.9655057448792201</v>
       </c>
       <c r="D19">
-        <v>0.9921390346734793</v>
+        <v>0.9921390346734792</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684963</v>
       </c>
       <c r="F19">
         <v>0.9737619709370068</v>
@@ -1085,16 +1085,16 @@
         <v>1.032984521593004</v>
       </c>
       <c r="J19">
-        <v>0.9937956911810005</v>
+        <v>0.9937956911810004</v>
       </c>
       <c r="K19">
         <v>1.006029572043288</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9546352493816589</v>
       </c>
       <c r="M19">
-        <v>0.9879824459807849</v>
+        <v>0.9879824459807848</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9627029362345192</v>
+        <v>0.9627029362345182</v>
       </c>
       <c r="D20">
-        <v>0.9900908666677667</v>
+        <v>0.990090866667766</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660144</v>
       </c>
       <c r="F20">
-        <v>0.9707974785671526</v>
+        <v>0.9707974785671522</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032013256513143</v>
+        <v>1.032013256513142</v>
       </c>
       <c r="J20">
-        <v>0.9917513661537275</v>
+        <v>0.9917513661537268</v>
       </c>
       <c r="K20">
-        <v>1.004310223223824</v>
+        <v>1.004310223223823</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
-        <v>0.9853740193286606</v>
+        <v>0.9853740193286601</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9532932242568634</v>
+        <v>0.9532932242568625</v>
       </c>
       <c r="D21">
-        <v>0.9832234847259171</v>
+        <v>0.9832234847259164</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9608508773499767</v>
+        <v>0.960850877349976</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.02873191296979</v>
       </c>
       <c r="J21">
-        <v>0.9848823988727952</v>
+        <v>0.9848823988727944</v>
       </c>
       <c r="K21">
-        <v>0.9985298197849277</v>
+        <v>0.9985298197849274</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9766139410590065</v>
+        <v>0.9766139410590058</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9471284923816611</v>
+        <v>0.9471284923816626</v>
       </c>
       <c r="D22">
-        <v>0.97873238995846</v>
+        <v>0.9787323899584616</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651159</v>
       </c>
       <c r="F22">
-        <v>0.9543389840324155</v>
+        <v>0.9543389840324171</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026566824137098</v>
+        <v>1.026566824137099</v>
       </c>
       <c r="J22">
-        <v>0.9803783867745799</v>
+        <v>0.9803783867745814</v>
       </c>
       <c r="K22">
-        <v>0.9947372727857835</v>
+        <v>0.9947372727857848</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9460223821572513</v>
       </c>
       <c r="M22">
-        <v>0.9708727100317508</v>
+        <v>0.9708727100317524</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,13 +1219,13 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9504215029104086</v>
+        <v>0.9504215029104087</v>
       </c>
       <c r="D23">
-        <v>0.981130560012493</v>
+        <v>0.9811305600124934</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
         <v>0.9578170096391863</v>
@@ -1237,16 +1237,16 @@
         <v>1.027724742896218</v>
       </c>
       <c r="J23">
-        <v>0.9827846135826478</v>
+        <v>0.982784613582648</v>
       </c>
       <c r="K23">
-        <v>0.9967636025106825</v>
+        <v>0.9967636025106827</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9475391330285315</v>
       </c>
       <c r="M23">
-        <v>0.9739396840185414</v>
+        <v>0.9739396840185415</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9628567772314222</v>
+        <v>0.9628567772314218</v>
       </c>
       <c r="D24">
-        <v>0.9902032571035083</v>
+        <v>0.9902032571035078</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>0.9709601722242837</v>
+        <v>0.9709601722242832</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032066644760775</v>
+        <v>1.032066644760774</v>
       </c>
       <c r="J24">
-        <v>0.9918635975856407</v>
+        <v>0.99186359758564</v>
       </c>
       <c r="K24">
         <v>1.004404626862983</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9533716596442539</v>
       </c>
       <c r="M24">
-        <v>0.9855172023875052</v>
+        <v>0.9855172023875046</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,7 +1295,7 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9763319132281864</v>
+        <v>0.9763319132281867</v>
       </c>
       <c r="D25">
         <v>1.000060249102435</v>
@@ -1322,7 +1322,7 @@
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>0.9980532091454211</v>
+        <v>0.9980532091454212</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9864259546024524</v>
+        <v>0.9864259546024529</v>
       </c>
       <c r="D2">
-        <v>1.007457759185717</v>
+        <v>1.007457759185718</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9959185386132556</v>
+        <v>0.9959185386132563</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,7 +442,7 @@
         <v>1.009020384276295</v>
       </c>
       <c r="K2">
-        <v>1.018814164216753</v>
+        <v>1.018814164216754</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
@@ -459,10 +459,10 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9934241417994755</v>
+        <v>0.9934241417994746</v>
       </c>
       <c r="D3">
-        <v>1.012591580992655</v>
+        <v>1.012591580992654</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
@@ -477,10 +477,10 @@
         <v>1.042461607610388</v>
       </c>
       <c r="J3">
-        <v>1.014095690843094</v>
+        <v>1.014095690843093</v>
       </c>
       <c r="K3">
-        <v>1.023065845864966</v>
+        <v>1.023065845864965</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
@@ -497,7 +497,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9978129690230226</v>
+        <v>0.997812969023022</v>
       </c>
       <c r="D4">
         <v>1.015812747802275</v>
@@ -506,7 +506,7 @@
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.008004169071405</v>
+        <v>1.008004169071404</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,7 +515,7 @@
         <v>1.043910967103824</v>
       </c>
       <c r="J4">
-        <v>1.017272785211948</v>
+        <v>1.017272785211947</v>
       </c>
       <c r="K4">
         <v>1.025724000607679</v>
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9996264810701174</v>
+        <v>0.9996264810701186</v>
       </c>
       <c r="D5">
-        <v>1.017144029430976</v>
+        <v>1.017144029430977</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.009930894678019</v>
+        <v>1.009930894678021</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044505929559278</v>
+        <v>1.044505929559279</v>
       </c>
       <c r="J5">
-        <v>1.018584143539548</v>
+        <v>1.018584143539549</v>
       </c>
       <c r="K5">
-        <v>1.026820326671758</v>
+        <v>1.026820326671759</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.019689290238081</v>
+        <v>1.019689290238083</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9999291781163817</v>
+        <v>0.9999291781163803</v>
       </c>
       <c r="D6">
-        <v>1.017366248526515</v>
+        <v>1.017366248526514</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.010252544160451</v>
+        <v>1.01025254416045</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.044605002920201</v>
       </c>
       <c r="J6">
-        <v>1.018802938090153</v>
+        <v>1.018802938090151</v>
       </c>
       <c r="K6">
-        <v>1.027003193801579</v>
+        <v>1.027003193801578</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.019970054841823</v>
+        <v>1.019970054841822</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.997837322918341</v>
+        <v>0.9978373229183408</v>
       </c>
       <c r="D7">
         <v>1.015830624876572</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
         <v>1.008030039575494</v>
@@ -635,7 +635,7 @@
         <v>1.0257387315435</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
         <v>1.018029536398384</v>
@@ -649,22 +649,22 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9888210600985867</v>
+        <v>0.9888210600985865</v>
       </c>
       <c r="D8">
         <v>1.009214391993139</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9984589227941641</v>
+        <v>0.9984589227941645</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040927974639993</v>
+        <v>1.040927974639994</v>
       </c>
       <c r="J8">
         <v>1.010758585180288</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9717732912955924</v>
+        <v>0.9717732912955926</v>
       </c>
       <c r="D9">
-        <v>0.9967230166483584</v>
+        <v>0.9967230166483587</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9803942380808944</v>
+        <v>0.9803942380808945</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.035145038497202</v>
       </c>
       <c r="J9">
-        <v>0.9983637533162789</v>
+        <v>0.9983637533162791</v>
       </c>
       <c r="K9">
         <v>1.00986948531253</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9938136212993546</v>
+        <v>0.9938136212993545</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9594829986025347</v>
+        <v>0.9594829986025344</v>
       </c>
       <c r="D10">
-        <v>0.9877393202585285</v>
+        <v>0.987739320258528</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9673928201674989</v>
+        <v>0.9673928201674985</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030893838974048</v>
+        <v>1.030893838974047</v>
       </c>
       <c r="J10">
-        <v>0.9894017731535951</v>
+        <v>0.9894017731535947</v>
       </c>
       <c r="K10">
         <v>1.002333530777509</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.982376868157698</v>
+        <v>0.9823768681576974</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9539033831682232</v>
+        <v>0.9539033831682237</v>
       </c>
       <c r="D11">
-        <v>0.9836683538959373</v>
+        <v>0.9836683538959374</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9614955866589319</v>
+        <v>0.9614955866589325</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.028945580740521</v>
       </c>
       <c r="J11">
-        <v>0.9853280393758286</v>
+        <v>0.9853280393758289</v>
       </c>
       <c r="K11">
-        <v>0.998904976159774</v>
+        <v>0.9989049761597745</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9771821002533171</v>
+        <v>0.9771821002533176</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9517883163230693</v>
+        <v>0.9517883163230697</v>
       </c>
       <c r="D12">
-        <v>0.9821265222499755</v>
+        <v>0.9821265222499759</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9592609026918051</v>
+        <v>0.9592609026918054</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.028204424182274</v>
       </c>
       <c r="J12">
-        <v>0.98378314184744</v>
+        <v>0.9837831418474402</v>
       </c>
       <c r="K12">
-        <v>0.9976043523842406</v>
+        <v>0.9976043523842409</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9752125550258737</v>
+        <v>0.975212555025874</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9522439977977631</v>
+        <v>0.9522439977977646</v>
       </c>
       <c r="D13">
-        <v>0.9824586380125701</v>
+        <v>0.9824586380125716</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9597423198750065</v>
+        <v>0.9597423198750075</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.028364219641639</v>
       </c>
       <c r="J13">
-        <v>0.9841160112035009</v>
+        <v>0.9841160112035026</v>
       </c>
       <c r="K13">
-        <v>0.9978846067133869</v>
+        <v>0.9978846067133883</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.975636900303951</v>
+        <v>0.9756369003039523</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9537294430064007</v>
+        <v>0.9537294430064014</v>
       </c>
       <c r="D14">
-        <v>0.9835415270462408</v>
+        <v>0.9835415270462414</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9613117935105095</v>
+        <v>0.9613117935105102</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028884681643347</v>
+        <v>1.028884681643348</v>
       </c>
       <c r="J14">
-        <v>0.985201002003509</v>
+        <v>0.9852010020035097</v>
       </c>
       <c r="K14">
-        <v>0.9987980332581016</v>
+        <v>0.9987980332581022</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9770201347259193</v>
+        <v>0.9770201347259199</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9546389136339525</v>
+        <v>0.9546389136339537</v>
       </c>
       <c r="D15">
-        <v>0.9842047153526136</v>
+        <v>0.9842047153526151</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.962272813629292</v>
+        <v>0.9622728136292936</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.029202995062269</v>
       </c>
       <c r="J15">
-        <v>0.9858652083971982</v>
+        <v>0.9858652083971995</v>
       </c>
       <c r="K15">
-        <v>0.9993571611566635</v>
+        <v>0.9993571611566648</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9778669797767039</v>
+        <v>0.9778669797767053</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9598475533112326</v>
+        <v>0.9598475533112324</v>
       </c>
       <c r="D16">
-        <v>0.9880054778128798</v>
+        <v>0.9880054778128795</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9677782348425187</v>
+        <v>0.9677782348425185</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031020763892128</v>
+        <v>1.031020763892127</v>
       </c>
       <c r="J16">
-        <v>0.9896678408147442</v>
+        <v>0.9896678408147439</v>
       </c>
       <c r="K16">
         <v>1.00255740177899</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9827162262869091</v>
+        <v>0.982716226286909</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9630432325912259</v>
+        <v>0.9630432325912263</v>
       </c>
       <c r="D17">
-        <v>0.9903394790559285</v>
+        <v>0.9903394790559288</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9711573603804872</v>
+        <v>0.9711573603804875</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.03213133948786</v>
       </c>
       <c r="J17">
-        <v>0.9919996187635722</v>
+        <v>0.9919996187635726</v>
       </c>
       <c r="K17">
         <v>1.004519039294998</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9856907385928357</v>
+        <v>0.985690738592836</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9648826240628292</v>
+        <v>0.9648826240628299</v>
       </c>
       <c r="D18">
-        <v>0.9916835877085309</v>
+        <v>0.9916835877085318</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9731028310797494</v>
+        <v>0.97310283107975</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.032768850647211</v>
       </c>
       <c r="J18">
-        <v>0.9933412720879642</v>
+        <v>0.9933412720879649</v>
       </c>
       <c r="K18">
-        <v>1.005647434152027</v>
+        <v>1.005647434152028</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9874025785937535</v>
+        <v>0.9874025785937542</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,13 +1067,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9655057448792201</v>
+        <v>0.9655057448792204</v>
       </c>
       <c r="D19">
-        <v>0.9921390346734792</v>
+        <v>0.9921390346734793</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684963</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
         <v>0.9737619709370068</v>
@@ -1085,16 +1085,16 @@
         <v>1.032984521593004</v>
       </c>
       <c r="J19">
-        <v>0.9937956911810004</v>
+        <v>0.9937956911810005</v>
       </c>
       <c r="K19">
         <v>1.006029572043288</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816589</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>0.9879824459807848</v>
+        <v>0.9879824459807849</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9627029362345182</v>
+        <v>0.9627029362345192</v>
       </c>
       <c r="D20">
-        <v>0.990090866667766</v>
+        <v>0.9900908666677667</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660144</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9707974785671522</v>
+        <v>0.9707974785671526</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032013256513142</v>
+        <v>1.032013256513143</v>
       </c>
       <c r="J20">
-        <v>0.9917513661537268</v>
+        <v>0.9917513661537275</v>
       </c>
       <c r="K20">
-        <v>1.004310223223823</v>
+        <v>1.004310223223824</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9853740193286601</v>
+        <v>0.9853740193286606</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9532932242568625</v>
+        <v>0.9532932242568634</v>
       </c>
       <c r="D21">
-        <v>0.9832234847259164</v>
+        <v>0.9832234847259171</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.960850877349976</v>
+        <v>0.9608508773499767</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.02873191296979</v>
       </c>
       <c r="J21">
-        <v>0.9848823988727944</v>
+        <v>0.9848823988727952</v>
       </c>
       <c r="K21">
-        <v>0.9985298197849274</v>
+        <v>0.9985298197849277</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9766139410590058</v>
+        <v>0.9766139410590065</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9471284923816626</v>
+        <v>0.9471284923816611</v>
       </c>
       <c r="D22">
-        <v>0.9787323899584616</v>
+        <v>0.97873238995846</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651159</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9543389840324171</v>
+        <v>0.9543389840324155</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026566824137099</v>
+        <v>1.026566824137098</v>
       </c>
       <c r="J22">
-        <v>0.9803783867745814</v>
+        <v>0.9803783867745799</v>
       </c>
       <c r="K22">
-        <v>0.9947372727857848</v>
+        <v>0.9947372727857835</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572513</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9708727100317524</v>
+        <v>0.9708727100317508</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,13 +1219,13 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9504215029104087</v>
+        <v>0.9504215029104086</v>
       </c>
       <c r="D23">
-        <v>0.9811305600124934</v>
+        <v>0.981130560012493</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
         <v>0.9578170096391863</v>
@@ -1237,16 +1237,16 @@
         <v>1.027724742896218</v>
       </c>
       <c r="J23">
-        <v>0.982784613582648</v>
+        <v>0.9827846135826478</v>
       </c>
       <c r="K23">
-        <v>0.9967636025106827</v>
+        <v>0.9967636025106825</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9739396840185415</v>
+        <v>0.9739396840185414</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9628567772314218</v>
+        <v>0.9628567772314222</v>
       </c>
       <c r="D24">
-        <v>0.9902032571035078</v>
+        <v>0.9902032571035083</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9709601722242832</v>
+        <v>0.9709601722242837</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032066644760774</v>
+        <v>1.032066644760775</v>
       </c>
       <c r="J24">
-        <v>0.99186359758564</v>
+        <v>0.9918635975856407</v>
       </c>
       <c r="K24">
         <v>1.004404626862983</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442539</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9855172023875046</v>
+        <v>0.9855172023875052</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,7 +1295,7 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9763319132281867</v>
+        <v>0.9763319132281864</v>
       </c>
       <c r="D25">
         <v>1.000060249102435</v>
@@ -1322,7 +1322,7 @@
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>0.9980532091454212</v>
+        <v>0.9980532091454211</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9864259546024529</v>
+        <v>0.9864370165661995</v>
       </c>
       <c r="D2">
-        <v>1.007457759185718</v>
+        <v>1.007466624403755</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9959185386132563</v>
+        <v>0.9959279745187122</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040124883794257</v>
+        <v>1.040129657647704</v>
       </c>
       <c r="J2">
-        <v>1.009020384276295</v>
+        <v>1.009031102682155</v>
       </c>
       <c r="K2">
-        <v>1.018814164216754</v>
+        <v>1.01882290822164</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.007435029070292</v>
+        <v>1.007444332155418</v>
+      </c>
+      <c r="N2">
+        <v>1.008096801797795</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9934241417994746</v>
+        <v>0.9934307453325566</v>
       </c>
       <c r="D3">
-        <v>1.012591580992654</v>
+        <v>1.012597010160645</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.003343650365739</v>
+        <v>1.003349328986853</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042461607610388</v>
+        <v>1.042464533365063</v>
       </c>
       <c r="J3">
-        <v>1.014095690843093</v>
+        <v>1.014102111091779</v>
       </c>
       <c r="K3">
-        <v>1.023065845864965</v>
+        <v>1.023071207701505</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.013933926588146</v>
+        <v>1.013939533154179</v>
+      </c>
+      <c r="N3">
+        <v>1.011579359254685</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.997812969023022</v>
+        <v>0.9978168277570555</v>
       </c>
       <c r="D4">
-        <v>1.015812747802275</v>
+        <v>1.015816056694648</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.008004169071404</v>
+        <v>1.008007542750034</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043910967103824</v>
+        <v>1.043912751071449</v>
       </c>
       <c r="J4">
-        <v>1.017272785211947</v>
+        <v>1.017276544653288</v>
       </c>
       <c r="K4">
-        <v>1.025724000607679</v>
+        <v>1.02572727108732</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.018006941246646</v>
+        <v>1.018010275005316</v>
+      </c>
+      <c r="N4">
+        <v>1.013758178747113</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9996264810701186</v>
+        <v>0.9996292165270133</v>
       </c>
       <c r="D5">
-        <v>1.017144029430977</v>
+        <v>1.017146469593541</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.009930894678021</v>
+        <v>1.00993332687577</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044505929559279</v>
+        <v>1.044507245375841</v>
       </c>
       <c r="J5">
-        <v>1.018584143539549</v>
+        <v>1.018586810865882</v>
       </c>
       <c r="K5">
-        <v>1.026820326671759</v>
+        <v>1.026822739303707</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.019689290238083</v>
+        <v>1.019691694509109</v>
+      </c>
+      <c r="N5">
+        <v>1.014657190366427</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9999291781163803</v>
+        <v>0.9999317266883996</v>
       </c>
       <c r="D6">
-        <v>1.017366248526514</v>
+        <v>1.017368544097615</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.01025254416045</v>
+        <v>1.010254819820096</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044605002920201</v>
+        <v>1.044606240798093</v>
       </c>
       <c r="J6">
-        <v>1.018802938090151</v>
+        <v>1.018805423535839</v>
       </c>
       <c r="K6">
-        <v>1.027003193801578</v>
+        <v>1.027005463598419</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.019970054841822</v>
+        <v>1.019972304504937</v>
+      </c>
+      <c r="N6">
+        <v>1.014807168415621</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9978373229183408</v>
+        <v>0.9978411665262984</v>
       </c>
       <c r="D7">
-        <v>1.015830624876572</v>
+        <v>1.015833922074529</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.008030039575494</v>
+        <v>1.008033400569232</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043918972578309</v>
+        <v>1.043920750245233</v>
       </c>
       <c r="J7">
-        <v>1.0172904014388</v>
+        <v>1.017294146186055</v>
       </c>
       <c r="K7">
-        <v>1.0257387315435</v>
+        <v>1.02574199047896</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.018029536398384</v>
+        <v>1.018032857638128</v>
+      </c>
+      <c r="N7">
+        <v>1.013770256904686</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9888210600985865</v>
+        <v>0.9888305844451437</v>
       </c>
       <c r="D8">
-        <v>1.009214391993139</v>
+        <v>1.00922207333317</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9984589227941645</v>
+        <v>0.9984670610225297</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040927974639994</v>
+        <v>1.04093211203363</v>
       </c>
       <c r="J8">
-        <v>1.010758585180288</v>
+        <v>1.010767824586468</v>
       </c>
       <c r="K8">
-        <v>1.020270978482151</v>
+        <v>1.020278558144914</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.009659809494563</v>
+        <v>1.009667837057941</v>
+      </c>
+      <c r="N8">
+        <v>1.009289768477679</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9717732912955926</v>
+        <v>0.9717940504361666</v>
       </c>
       <c r="D9">
-        <v>0.9967230166483587</v>
+        <v>0.996739318895645</v>
       </c>
       <c r="E9">
         <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9803942380808945</v>
+        <v>0.9804119035999393</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035145038497202</v>
+        <v>1.035153804354944</v>
       </c>
       <c r="J9">
-        <v>0.9983637533162791</v>
+        <v>0.9983837179956235</v>
       </c>
       <c r="K9">
-        <v>1.00986948531253</v>
+        <v>1.009885520832522</v>
       </c>
       <c r="L9">
         <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9938136212993545</v>
+        <v>0.9938309852168566</v>
+      </c>
+      <c r="N9">
+        <v>1.000778018042076</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9594829986025344</v>
+        <v>0.9595123239865933</v>
       </c>
       <c r="D10">
-        <v>0.987739320258528</v>
+        <v>0.9877621476798407</v>
       </c>
       <c r="E10">
         <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9673928201674985</v>
+        <v>0.9674178212611494</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030893838974047</v>
+        <v>1.030906100104514</v>
       </c>
       <c r="J10">
-        <v>0.9894017731535947</v>
+        <v>0.9894297896497117</v>
       </c>
       <c r="K10">
-        <v>1.002333530777509</v>
+        <v>1.002355932595442</v>
       </c>
       <c r="L10">
         <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9823768681576974</v>
+        <v>0.9824013770192869</v>
+      </c>
+      <c r="N10">
+        <v>0.9946179259086669</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9539033831682237</v>
+        <v>0.9539367450190447</v>
       </c>
       <c r="D11">
-        <v>0.9836683538959374</v>
+        <v>0.9836942408250989</v>
       </c>
       <c r="E11">
         <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9614955866589325</v>
+        <v>0.9615240656419424</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028945580740521</v>
+        <v>1.028959478843828</v>
       </c>
       <c r="J11">
-        <v>0.9853280393758289</v>
+        <v>0.9853598126375689</v>
       </c>
       <c r="K11">
-        <v>0.9989049761597745</v>
+        <v>0.9989303533978896</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9771821002533176</v>
+        <v>0.9772099837940036</v>
+      </c>
+      <c r="N11">
+        <v>0.9918166408094308</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9517883163230697</v>
+        <v>0.9518232342593856</v>
       </c>
       <c r="D12">
-        <v>0.9821265222499759</v>
+        <v>0.9821535859819264</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9592609026918054</v>
+        <v>0.9592907260551077</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028204424182274</v>
+        <v>1.028218951648758</v>
       </c>
       <c r="J12">
-        <v>0.9837831418474402</v>
+        <v>0.9838163570599767</v>
       </c>
       <c r="K12">
-        <v>0.9976043523842409</v>
+        <v>0.9976308725008094</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.975212555025874</v>
+        <v>0.9752417408871132</v>
+      </c>
+      <c r="N12">
+        <v>0.9907541416494779</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9522439977977646</v>
+        <v>0.9522785792416332</v>
       </c>
       <c r="D13">
-        <v>0.9824586380125716</v>
+        <v>0.982485447395487</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9597423198750075</v>
+        <v>0.9597718523548224</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028364219641639</v>
+        <v>1.028378611092767</v>
       </c>
       <c r="J13">
-        <v>0.9841160112035026</v>
+        <v>0.9841489149003966</v>
       </c>
       <c r="K13">
-        <v>0.9978846067133883</v>
+        <v>0.9979108798867041</v>
       </c>
       <c r="L13">
         <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9756369003039523</v>
+        <v>0.9756658044835771</v>
+      </c>
+      <c r="N13">
+        <v>0.9909830784335382</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9537294430064014</v>
+        <v>0.9537629322765759</v>
       </c>
       <c r="D14">
-        <v>0.9835415270462414</v>
+        <v>0.9835675103932783</v>
       </c>
       <c r="E14">
         <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9613117935105102</v>
+        <v>0.961340382501691</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028884681643348</v>
+        <v>1.028898631317267</v>
       </c>
       <c r="J14">
-        <v>0.9852010020035097</v>
+        <v>0.9852328934701714</v>
       </c>
       <c r="K14">
-        <v>0.9987980332581022</v>
+        <v>0.9988235041673271</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9770201347259199</v>
+        <v>0.9770481248781226</v>
+      </c>
+      <c r="N14">
+        <v>0.9917292742659941</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9546389136339537</v>
+        <v>0.9546717377537614</v>
       </c>
       <c r="D15">
-        <v>0.9842047153526151</v>
+        <v>0.9842301952726193</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9622728136292936</v>
+        <v>0.9623008285084703</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029202995062269</v>
+        <v>1.029216675459125</v>
       </c>
       <c r="J15">
-        <v>0.9858652083971995</v>
+        <v>0.9858964825555995</v>
       </c>
       <c r="K15">
-        <v>0.9993571611566648</v>
+        <v>0.9993821429158787</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9778669797767053</v>
+        <v>0.9778944134547699</v>
+      </c>
+      <c r="N15">
+        <v>0.9921860581205449</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9598475533112324</v>
+        <v>0.9598766183188128</v>
       </c>
       <c r="D16">
-        <v>0.9880054778128795</v>
+        <v>0.9880281075385086</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9677782348425185</v>
+        <v>0.967803012059113</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031020763892127</v>
+        <v>1.031032919208538</v>
       </c>
       <c r="J16">
-        <v>0.9896678408147439</v>
+        <v>0.9896956141615704</v>
       </c>
       <c r="K16">
-        <v>1.00255740177899</v>
+        <v>1.002579611127813</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.982716226286909</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9827405176360539</v>
+      </c>
+      <c r="N16">
+        <v>0.994800863507756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9630432325912263</v>
+        <v>0.963070032143264</v>
       </c>
       <c r="D17">
-        <v>0.9903394790559288</v>
+        <v>0.9903603869766107</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9711573603804875</v>
+        <v>0.9711801921097249</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03213133948786</v>
+        <v>1.032142573022461</v>
       </c>
       <c r="J17">
-        <v>0.9919996187635726</v>
+        <v>0.9920252723514104</v>
       </c>
       <c r="K17">
-        <v>1.004519039294998</v>
+        <v>1.004539571281726</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.985690738592836</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9857131383266614</v>
+      </c>
+      <c r="N17">
+        <v>0.9964039720941591</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9648826240628299</v>
+        <v>0.9649081332023254</v>
       </c>
       <c r="D18">
-        <v>0.9916835877085318</v>
+        <v>0.9917035135156195</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.97310283107975</v>
+        <v>0.9731245565765014</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032768850647211</v>
+        <v>1.032779558226217</v>
       </c>
       <c r="J18">
-        <v>0.9933412720879649</v>
+        <v>0.9933657148817147</v>
       </c>
       <c r="K18">
-        <v>1.005647434152028</v>
+        <v>1.005667008502524</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9874025785937542</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.987423901572017</v>
+      </c>
+      <c r="N18">
+        <v>0.9973262542838445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9655057448792204</v>
+        <v>0.9655308190697761</v>
       </c>
       <c r="D19">
-        <v>0.9921390346734793</v>
+        <v>0.9921586292256149</v>
       </c>
       <c r="E19">
         <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9737619709370068</v>
+        <v>0.9737833238800107</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032984521593004</v>
+        <v>1.032995051744091</v>
       </c>
       <c r="J19">
-        <v>0.9937956911810005</v>
+        <v>0.9938197253093441</v>
       </c>
       <c r="K19">
-        <v>1.006029572043288</v>
+        <v>1.006048823250554</v>
       </c>
       <c r="L19">
         <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>0.9879824459807849</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9880034061427682</v>
+      </c>
+      <c r="N19">
+        <v>0.9976386126906134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9627029362345192</v>
+        <v>0.9627299755927777</v>
       </c>
       <c r="D20">
-        <v>0.9900908666677667</v>
+        <v>0.9901119569924696</v>
       </c>
       <c r="E20">
         <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9707974785671526</v>
+        <v>0.9708205160291836</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032013256513143</v>
+        <v>1.032024587717232</v>
       </c>
       <c r="J20">
-        <v>0.9917513661537275</v>
+        <v>0.9917772444817764</v>
       </c>
       <c r="K20">
-        <v>1.004310223223824</v>
+        <v>1.00433093299838</v>
       </c>
       <c r="L20">
         <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9853740193286606</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9853966192206115</v>
+      </c>
+      <c r="N20">
+        <v>0.9962333086383033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9532932242568634</v>
+        <v>0.9533270335096091</v>
       </c>
       <c r="D21">
-        <v>0.9832234847259171</v>
+        <v>0.9832497101589766</v>
       </c>
       <c r="E21">
         <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9608508773499767</v>
+        <v>0.960879742659439</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02873191296979</v>
+        <v>1.028745992122768</v>
       </c>
       <c r="J21">
-        <v>0.9848823988727952</v>
+        <v>0.9849145870787575</v>
       </c>
       <c r="K21">
-        <v>0.9985298197849277</v>
+        <v>0.9985555258577857</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9766139410590065</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9766421989623288</v>
+      </c>
+      <c r="N21">
+        <v>0.9915101610541908</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9471284923816611</v>
+        <v>0.947166891464791</v>
       </c>
       <c r="D22">
-        <v>0.97873238995846</v>
+        <v>0.9787620809205965</v>
       </c>
       <c r="E22">
         <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9543389840324155</v>
+        <v>0.9543718222163359</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026566824137098</v>
+        <v>1.026582756154635</v>
       </c>
       <c r="J22">
-        <v>0.9803783867745799</v>
+        <v>0.980414815203535</v>
       </c>
       <c r="K22">
-        <v>0.9947372727857835</v>
+        <v>0.9947663412915697</v>
       </c>
       <c r="L22">
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9708727100317508</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9709048120717303</v>
+      </c>
+      <c r="N22">
+        <v>0.988412262708105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9504215029104086</v>
+        <v>0.9504574342966359</v>
       </c>
       <c r="D23">
-        <v>0.981130560012493</v>
+        <v>0.9811583893723036</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9578170096391863</v>
+        <v>0.9578477096556975</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027724742896218</v>
+        <v>1.027739679748392</v>
       </c>
       <c r="J23">
-        <v>0.9827846135826478</v>
+        <v>0.9828187660356362</v>
       </c>
       <c r="K23">
-        <v>0.9967636025106825</v>
+        <v>0.9967908657193475</v>
       </c>
       <c r="L23">
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9739396840185414</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9739697184634815</v>
+      </c>
+      <c r="N23">
+        <v>0.9900673646922337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9628567772314222</v>
+        <v>0.962883708136365</v>
       </c>
       <c r="D24">
-        <v>0.9902032571035083</v>
+        <v>0.9902242649395072</v>
       </c>
       <c r="E24">
         <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9709601722242837</v>
+        <v>0.9709831166368641</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032066644760775</v>
+        <v>1.03207793179626</v>
       </c>
       <c r="J24">
-        <v>0.9918635975856407</v>
+        <v>0.9918893742845074</v>
       </c>
       <c r="K24">
-        <v>1.004404626862983</v>
+        <v>1.004425256239132</v>
       </c>
       <c r="L24">
         <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9855172023875052</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9855397117549255</v>
+      </c>
+      <c r="N24">
+        <v>0.9963104634765807</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9763319132281864</v>
+        <v>0.9763495992611091</v>
       </c>
       <c r="D25">
-        <v>1.000060249102435</v>
+        <v>1.000074200114462</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9852210530883895</v>
+        <v>0.9852361020323385</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03670571499402</v>
+        <v>1.036713219833367</v>
       </c>
       <c r="J25">
-        <v>1.001682926960302</v>
+        <v>1.001699976595529</v>
       </c>
       <c r="K25">
-        <v>1.012657629853124</v>
+        <v>1.012671364330858</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>0.9980532091454211</v>
+        <v>0.9980680153984891</v>
+      </c>
+      <c r="N25">
+        <v>1.003058384195944</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9864370165661995</v>
+        <v>1.000768455961635</v>
       </c>
       <c r="D2">
-        <v>1.007466624403755</v>
+        <v>1.019111478862956</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.004995681787209</v>
       </c>
       <c r="F2">
-        <v>0.9959279745187122</v>
+        <v>1.009211397822275</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040129657647704</v>
+        <v>1.045552378002806</v>
       </c>
       <c r="J2">
-        <v>1.009031102682155</v>
+        <v>1.022926206912405</v>
       </c>
       <c r="K2">
-        <v>1.01882290822164</v>
+        <v>1.030310829541678</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.016385854824947</v>
       </c>
       <c r="M2">
-        <v>1.007444332155418</v>
+        <v>1.020543877720609</v>
       </c>
       <c r="N2">
-        <v>1.008096801797795</v>
+        <v>1.024378879457496</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9934307453325566</v>
+        <v>1.007832640751137</v>
       </c>
       <c r="D3">
-        <v>1.012597010160645</v>
+        <v>1.024547587760533</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.01198933133965</v>
       </c>
       <c r="F3">
-        <v>1.003349328986853</v>
+        <v>1.016815270245856</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042464533365063</v>
+        <v>1.048028280437118</v>
       </c>
       <c r="J3">
-        <v>1.014102111091779</v>
+        <v>1.028112033871278</v>
       </c>
       <c r="K3">
-        <v>1.023071207701505</v>
+        <v>1.034875724011785</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.02247107077736</v>
       </c>
       <c r="M3">
-        <v>1.013939533154179</v>
+        <v>1.027237424098194</v>
       </c>
       <c r="N3">
-        <v>1.011579359254685</v>
+        <v>1.029572070885474</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9978168277570555</v>
+        <v>1.012263571076288</v>
       </c>
       <c r="D4">
-        <v>1.015816056694648</v>
+        <v>1.027958236381791</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.016389320326708</v>
       </c>
       <c r="F4">
-        <v>1.008007542750034</v>
+        <v>1.021598184082477</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043912751071449</v>
+        <v>1.049565552266644</v>
       </c>
       <c r="J4">
-        <v>1.017276544653288</v>
+        <v>1.031358691958072</v>
       </c>
       <c r="K4">
-        <v>1.02572727108732</v>
+        <v>1.037730545472408</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.026293884402079</v>
       </c>
       <c r="M4">
-        <v>1.018010275005316</v>
+        <v>1.031442743312852</v>
       </c>
       <c r="N4">
-        <v>1.013758178747113</v>
+        <v>1.032823339599148</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9996292165270133</v>
+        <v>1.014094620873335</v>
       </c>
       <c r="D5">
-        <v>1.017146469593541</v>
+        <v>1.029367777018322</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>1.018210765091807</v>
       </c>
       <c r="F5">
-        <v>1.00993332687577</v>
+        <v>1.023577928594323</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044507245375841</v>
+        <v>1.050196981461614</v>
       </c>
       <c r="J5">
-        <v>1.018586810865882</v>
+        <v>1.03269883073063</v>
       </c>
       <c r="K5">
-        <v>1.026822739303707</v>
+        <v>1.038908173959647</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>1.027875042609906</v>
       </c>
       <c r="M5">
-        <v>1.019691694509109</v>
+        <v>1.033182197830341</v>
       </c>
       <c r="N5">
-        <v>1.014657190366427</v>
+        <v>1.034165381522479</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9999317266883996</v>
+        <v>1.014400252595483</v>
       </c>
       <c r="D6">
-        <v>1.017368544097615</v>
+        <v>1.029603055926515</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>1.018514980454678</v>
       </c>
       <c r="F6">
-        <v>1.010254819820096</v>
+        <v>1.023908570697343</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044606240798093</v>
+        <v>1.050302149541975</v>
       </c>
       <c r="J6">
-        <v>1.018805423535839</v>
+        <v>1.032922430532277</v>
       </c>
       <c r="K6">
-        <v>1.027005463598419</v>
+        <v>1.039104613117469</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>1.028139045846626</v>
       </c>
       <c r="M6">
-        <v>1.019972304504937</v>
+        <v>1.033472636823794</v>
       </c>
       <c r="N6">
-        <v>1.014807168415621</v>
+        <v>1.034389298861492</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9978411665262984</v>
+        <v>1.012288159971459</v>
       </c>
       <c r="D7">
-        <v>1.015833922074529</v>
+        <v>1.027977164570882</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.016413767654134</v>
       </c>
       <c r="F7">
-        <v>1.008033400569232</v>
+        <v>1.021624756937789</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043920750245233</v>
+        <v>1.04957404691477</v>
       </c>
       <c r="J7">
-        <v>1.017294146186055</v>
+        <v>1.031376694569662</v>
       </c>
       <c r="K7">
-        <v>1.02574199047896</v>
+        <v>1.037746368105277</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.026315111982801</v>
       </c>
       <c r="M7">
-        <v>1.018032857638128</v>
+        <v>1.03146609572122</v>
       </c>
       <c r="N7">
-        <v>1.013770256904686</v>
+        <v>1.032841367776511</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9888305844451437</v>
+        <v>1.003185978009109</v>
       </c>
       <c r="D8">
-        <v>1.00922207333317</v>
+        <v>1.020971578646831</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>1.007386248546459</v>
       </c>
       <c r="F8">
-        <v>0.9984670610225297</v>
+        <v>1.011810772418071</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04093211203363</v>
+        <v>1.046402962762414</v>
       </c>
       <c r="J8">
-        <v>1.010767824586468</v>
+        <v>1.024702163757645</v>
       </c>
       <c r="K8">
-        <v>1.020278558144914</v>
+        <v>1.031874776360899</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.018467089373826</v>
       </c>
       <c r="M8">
-        <v>1.009667837057941</v>
+        <v>1.02283310107399</v>
       </c>
       <c r="N8">
-        <v>1.009289768477679</v>
+        <v>1.026157358365162</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9717940504361666</v>
+        <v>0.9859832618483577</v>
       </c>
       <c r="D9">
-        <v>0.996739318895645</v>
+        <v>1.00774407674511</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9904336036101506</v>
       </c>
       <c r="F9">
-        <v>0.9804119035999393</v>
+        <v>0.9933721608210144</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035153804354944</v>
+        <v>1.04028521729895</v>
       </c>
       <c r="J9">
-        <v>0.9983837179956235</v>
+        <v>1.012040885407749</v>
       </c>
       <c r="K9">
-        <v>1.009885520832522</v>
+        <v>1.020712748878213</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>1.003683819470887</v>
       </c>
       <c r="M9">
-        <v>0.9938309852168566</v>
+        <v>1.006573693232056</v>
       </c>
       <c r="N9">
-        <v>1.000778018042076</v>
+        <v>1.01347809954774</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9595123239865933</v>
+        <v>0.9735892627093784</v>
       </c>
       <c r="D10">
-        <v>0.9877621476798407</v>
+        <v>0.9982311527477411</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9782955326276435</v>
       </c>
       <c r="F10">
-        <v>0.9674178212611494</v>
+        <v>0.9801622290852505</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030906100104514</v>
+        <v>1.035797531874506</v>
       </c>
       <c r="J10">
-        <v>0.9894297896497117</v>
+        <v>1.002891392659779</v>
       </c>
       <c r="K10">
-        <v>1.002355932595442</v>
+        <v>1.012632417890751</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9930680465754317</v>
       </c>
       <c r="M10">
-        <v>0.9824013770192869</v>
+        <v>0.9948991425299458</v>
       </c>
       <c r="N10">
-        <v>0.9946179259086669</v>
+        <v>1.004315613470607</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9539367450190447</v>
+        <v>0.967965279284714</v>
       </c>
       <c r="D11">
-        <v>0.9836942408250989</v>
+        <v>0.9939206958029119</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9728060970893126</v>
       </c>
       <c r="F11">
-        <v>0.9615240656419424</v>
+        <v>0.9741857037579179</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028959478843828</v>
+        <v>1.03374336272349</v>
       </c>
       <c r="J11">
-        <v>0.9853598126375689</v>
+        <v>0.9987342523253955</v>
       </c>
       <c r="K11">
-        <v>0.9989303533978896</v>
+        <v>1.008958176817643</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9882597415966511</v>
       </c>
       <c r="M11">
-        <v>0.9772099837940036</v>
+        <v>0.9896114311098057</v>
       </c>
       <c r="N11">
-        <v>0.9918166408094308</v>
+        <v>1.000152569520118</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>0.9518232342593856</v>
+        <v>0.9658338861993538</v>
       </c>
       <c r="D12">
-        <v>0.9821535859819264</v>
+        <v>0.9922882416154155</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9707285045829309</v>
       </c>
       <c r="F12">
-        <v>0.9592907260551077</v>
+        <v>0.9719233642237787</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028218951648758</v>
+        <v>1.032962306799178</v>
       </c>
       <c r="J12">
-        <v>0.9838163570599767</v>
+        <v>0.9971580622119359</v>
       </c>
       <c r="K12">
-        <v>0.9976308725008094</v>
+        <v>1.007564693275611</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9864388400156211</v>
       </c>
       <c r="M12">
-        <v>0.9752417408871132</v>
+        <v>0.9876089882045874</v>
       </c>
       <c r="N12">
-        <v>0.9907541416494779</v>
+        <v>0.9985741410359054</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9522785792416332</v>
+        <v>0.9662930613485556</v>
       </c>
       <c r="D13">
-        <v>0.982485447395487</v>
+        <v>0.9926398734856393</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.971175961735953</v>
       </c>
       <c r="F13">
-        <v>0.9597718523548224</v>
+        <v>0.9724106296309347</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028378611092767</v>
+        <v>1.033130686639591</v>
       </c>
       <c r="J13">
-        <v>0.9841489149003966</v>
+        <v>0.9974976575973672</v>
       </c>
       <c r="K13">
-        <v>0.9979108798867041</v>
+        <v>1.00786494053303</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9868310623478788</v>
       </c>
       <c r="M13">
-        <v>0.9756658044835771</v>
+        <v>0.9880403143671402</v>
       </c>
       <c r="N13">
-        <v>0.9909830784335382</v>
+        <v>0.9989142186857359</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9537629322765759</v>
+        <v>0.9677899859555138</v>
       </c>
       <c r="D14">
-        <v>0.9835675103932783</v>
+        <v>0.9937864127191071</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9726351713038565</v>
       </c>
       <c r="F14">
-        <v>0.961340382501691</v>
+        <v>0.9739995869833755</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028898631317267</v>
+        <v>1.033679177129538</v>
       </c>
       <c r="J14">
-        <v>0.9852328934701714</v>
+        <v>0.9986046345012389</v>
       </c>
       <c r="K14">
-        <v>0.9988235041673271</v>
+        <v>1.008843591382978</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9881099562773922</v>
       </c>
       <c r="M14">
-        <v>0.9770481248781226</v>
+        <v>0.9894467122993069</v>
       </c>
       <c r="N14">
-        <v>0.9917292742659941</v>
+        <v>1.000022767623783</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9546717377537614</v>
+        <v>0.9687065523488854</v>
       </c>
       <c r="D15">
-        <v>0.9842301952726193</v>
+        <v>0.994488593837984</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9735290152459803</v>
       </c>
       <c r="F15">
-        <v>0.9623008285084703</v>
+        <v>0.9749728546471063</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029216675459125</v>
+        <v>1.034014684741031</v>
       </c>
       <c r="J15">
-        <v>0.9858964825555995</v>
+        <v>0.9992823467453239</v>
       </c>
       <c r="K15">
-        <v>0.9993821429158787</v>
+        <v>1.009442690765523</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9888932031211158</v>
       </c>
       <c r="M15">
-        <v>0.9778944134547699</v>
+        <v>0.9903080486033333</v>
       </c>
       <c r="N15">
-        <v>0.9921860581205449</v>
+        <v>1.00070144229699</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9598766183188128</v>
+        <v>0.9739567791262113</v>
       </c>
       <c r="D16">
-        <v>0.9880281075385086</v>
+        <v>0.9985129774093428</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9786546407073724</v>
       </c>
       <c r="F16">
-        <v>0.967803012059113</v>
+        <v>0.9805531494455199</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031032919208538</v>
+        <v>1.035931409080974</v>
       </c>
       <c r="J16">
-        <v>0.9896956141615704</v>
+        <v>1.003162950681095</v>
       </c>
       <c r="K16">
-        <v>1.002579611127813</v>
+        <v>1.012872375650679</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9933824450434989</v>
       </c>
       <c r="M16">
-        <v>0.9827405176360539</v>
+        <v>0.995244889841249</v>
       </c>
       <c r="N16">
-        <v>0.994800863507756</v>
+        <v>1.004587557135461</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.963070032143264</v>
+        <v>0.9771787348010097</v>
       </c>
       <c r="D17">
-        <v>0.9903603869766107</v>
+        <v>1.000984407475668</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9818049612726457</v>
       </c>
       <c r="F17">
-        <v>0.9711801921097249</v>
+        <v>0.9839822781113311</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032142573022461</v>
+        <v>1.037103094679402</v>
       </c>
       <c r="J17">
-        <v>0.9920252723514104</v>
+        <v>1.00554305755502</v>
       </c>
       <c r="K17">
-        <v>1.004539571281726</v>
+        <v>1.01497519845076</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9961397181973581</v>
       </c>
       <c r="M17">
-        <v>0.9857131383266614</v>
+        <v>0.9982771083826023</v>
       </c>
       <c r="N17">
-        <v>0.9964039720941591</v>
+        <v>1.006971044034149</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9649081332023254</v>
+        <v>0.979033498866158</v>
       </c>
       <c r="D18">
-        <v>0.9917035135156195</v>
+        <v>1.002407687316574</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9836202119898607</v>
       </c>
       <c r="F18">
-        <v>0.9731245565765014</v>
+        <v>0.9859579644588101</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032779558226217</v>
+        <v>1.037775913723075</v>
       </c>
       <c r="J18">
-        <v>0.9933657148817147</v>
+        <v>1.006912685018996</v>
       </c>
       <c r="K18">
-        <v>1.005667008502524</v>
+        <v>1.016184989959315</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9977278014987075</v>
       </c>
       <c r="M18">
-        <v>0.987423901572017</v>
+        <v>1.000023565315808</v>
       </c>
       <c r="N18">
-        <v>0.9973262542838445</v>
+        <v>1.008342616526222</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9655308190697761</v>
+        <v>0.9796618672202549</v>
       </c>
       <c r="D19">
-        <v>0.9921586292256149</v>
+        <v>1.002889965180962</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9842354851291115</v>
       </c>
       <c r="F19">
-        <v>0.9737833238800107</v>
+        <v>0.9866275812016456</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032995051744091</v>
+        <v>1.038003567612696</v>
       </c>
       <c r="J19">
-        <v>0.9938197253093441</v>
+        <v>1.007376605571618</v>
       </c>
       <c r="K19">
-        <v>1.006048823250554</v>
+        <v>1.016594723136126</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.998265960035706</v>
       </c>
       <c r="M19">
-        <v>0.9880034061427682</v>
+        <v>1.000615395431886</v>
       </c>
       <c r="N19">
-        <v>0.9976386126906134</v>
+        <v>1.008807195899242</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9627299755927777</v>
+        <v>0.976835614006998</v>
       </c>
       <c r="D20">
-        <v>0.9901119569924696</v>
+        <v>1.00072115332873</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9814692896820577</v>
       </c>
       <c r="F20">
-        <v>0.9708205160291836</v>
+        <v>0.9836169219139734</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032024587717232</v>
+        <v>1.036978490217616</v>
       </c>
       <c r="J20">
-        <v>0.9917772444817764</v>
+        <v>1.005289641859371</v>
       </c>
       <c r="K20">
-        <v>1.00433093299838</v>
+        <v>1.014751333966399</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9958459980028813</v>
       </c>
       <c r="M20">
-        <v>0.9853966192206115</v>
+        <v>0.9979540979274735</v>
       </c>
       <c r="N20">
-        <v>0.9962333086383033</v>
+        <v>1.006717268459145</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9533270335096091</v>
+        <v>0.9673503818716576</v>
       </c>
       <c r="D21">
-        <v>0.9832497101589766</v>
+        <v>0.993449673919925</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9722065655444657</v>
       </c>
       <c r="F21">
-        <v>0.960879742659439</v>
+        <v>0.9735328824267822</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028745992122768</v>
+        <v>1.033518170465147</v>
       </c>
       <c r="J21">
-        <v>0.9849145870787575</v>
+        <v>0.9982795653990493</v>
       </c>
       <c r="K21">
-        <v>0.9985555258577857</v>
+        <v>1.008556216041157</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9877343437642818</v>
       </c>
       <c r="M21">
-        <v>0.9766421989623288</v>
+        <v>0.9890336515844009</v>
       </c>
       <c r="N21">
-        <v>0.9915101610541908</v>
+        <v>0.9996972368861825</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.947166891464791</v>
+        <v>0.9611391102809558</v>
       </c>
       <c r="D22">
-        <v>0.9787620809205965</v>
+        <v>0.9886948104922285</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9661574725315643</v>
       </c>
       <c r="F22">
-        <v>0.9543718222163359</v>
+        <v>0.9669450693732672</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026582756154635</v>
+        <v>1.031237299799055</v>
       </c>
       <c r="J22">
-        <v>0.980414815203535</v>
+        <v>0.9936850472517413</v>
       </c>
       <c r="K22">
-        <v>0.9947663412915697</v>
+        <v>1.004493602113352</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9824305492751726</v>
       </c>
       <c r="M22">
-        <v>0.9709048120717303</v>
+        <v>0.9832010766907181</v>
       </c>
       <c r="N22">
-        <v>0.988412262708105</v>
+        <v>0.9950961939961069</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9504574342966359</v>
+        <v>0.9644566731338862</v>
       </c>
       <c r="D23">
-        <v>0.9811583893723036</v>
+        <v>0.9912337686334008</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9693868529714809</v>
       </c>
       <c r="F23">
-        <v>0.9578477096556975</v>
+        <v>0.9704622897144046</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027739679748392</v>
+        <v>1.032456915806961</v>
       </c>
       <c r="J23">
-        <v>0.9828187660356362</v>
+        <v>0.9961394125606035</v>
       </c>
       <c r="K23">
-        <v>0.9967908657193475</v>
+        <v>1.006664019499521</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9852626435065448</v>
       </c>
       <c r="M23">
-        <v>0.9739697184634815</v>
+        <v>0.9863155273122788</v>
       </c>
       <c r="N23">
-        <v>0.9900673646922337</v>
+        <v>0.997554044785227</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.962883708136365</v>
+        <v>0.9769907311086727</v>
       </c>
       <c r="D24">
-        <v>0.9902242649395072</v>
+        <v>1.000840162792019</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9816210338130611</v>
       </c>
       <c r="F24">
-        <v>0.9709831166368641</v>
+        <v>0.9837820859765236</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03207793179626</v>
+        <v>1.037034826282179</v>
       </c>
       <c r="J24">
-        <v>0.9918893742845074</v>
+        <v>1.005404206934341</v>
       </c>
       <c r="K24">
-        <v>1.004425256239132</v>
+        <v>1.014852540277202</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9959787796722031</v>
       </c>
       <c r="M24">
-        <v>0.9855397117549255</v>
+        <v>0.9981001207534882</v>
       </c>
       <c r="N24">
-        <v>0.9963104634765807</v>
+        <v>1.006831996229662</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9763495992611091</v>
+        <v>0.9905821882011809</v>
       </c>
       <c r="D25">
-        <v>1.000074200114462</v>
+        <v>1.01127801833606</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9949529317032614</v>
       </c>
       <c r="F25">
-        <v>0.9852361020323385</v>
+        <v>0.9982888384196771</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036713219833367</v>
+        <v>1.041934673604167</v>
       </c>
       <c r="J25">
-        <v>1.001699976595529</v>
+        <v>1.01543070990854</v>
       </c>
       <c r="K25">
-        <v>1.012671364330858</v>
+        <v>1.023703744465523</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>1.007630105448386</v>
       </c>
       <c r="M25">
-        <v>0.9980680153984891</v>
+        <v>1.010913776172986</v>
       </c>
       <c r="N25">
-        <v>1.003058384195944</v>
+        <v>1.016872737988141</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000768455961635</v>
+        <v>0.9958474773685022</v>
       </c>
       <c r="D2">
-        <v>1.019111478862956</v>
+        <v>1.01655744704924</v>
       </c>
       <c r="E2">
-        <v>1.004995681787209</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.009211397822275</v>
+        <v>1.016447050586159</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045552378002806</v>
+        <v>1.041558717669175</v>
       </c>
       <c r="J2">
-        <v>1.022926206912405</v>
+        <v>1.018153103042577</v>
       </c>
       <c r="K2">
-        <v>1.030310829541678</v>
+        <v>1.02779083078388</v>
       </c>
       <c r="L2">
-        <v>1.016385854824947</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.020543877720609</v>
+        <v>1.027681910222102</v>
       </c>
       <c r="N2">
-        <v>1.024378879457496</v>
+        <v>1.01959899723269</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007832640751137</v>
+        <v>1.000203774654157</v>
       </c>
       <c r="D3">
-        <v>1.024547587760533</v>
+        <v>1.019725566545332</v>
       </c>
       <c r="E3">
-        <v>1.01198933133965</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.016815270245856</v>
+        <v>1.020368556385845</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048028280437118</v>
+        <v>1.04242903286212</v>
       </c>
       <c r="J3">
-        <v>1.028112033871278</v>
+        <v>1.020688886108071</v>
       </c>
       <c r="K3">
-        <v>1.034875724011785</v>
+        <v>1.03011212600388</v>
       </c>
       <c r="L3">
-        <v>1.02247107077736</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.027237424098194</v>
+        <v>1.030747285786279</v>
       </c>
       <c r="N3">
-        <v>1.029572070885474</v>
+        <v>1.022138381400996</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012263571076288</v>
+        <v>1.002966092311159</v>
       </c>
       <c r="D4">
-        <v>1.027958236381791</v>
+        <v>1.021736823260428</v>
       </c>
       <c r="E4">
-        <v>1.016389320326708</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.021598184082477</v>
+        <v>1.022860546446001</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049565552266644</v>
+        <v>1.042970098027664</v>
       </c>
       <c r="J4">
-        <v>1.031358691958072</v>
+        <v>1.02229422826518</v>
       </c>
       <c r="K4">
-        <v>1.037730545472408</v>
+        <v>1.031579795717281</v>
       </c>
       <c r="L4">
-        <v>1.026293884402079</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.031442743312852</v>
+        <v>1.032690677083916</v>
       </c>
       <c r="N4">
-        <v>1.032823339599148</v>
+        <v>1.023746003328104</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014094620873335</v>
+        <v>1.004114309094622</v>
       </c>
       <c r="D5">
-        <v>1.029367777018322</v>
+        <v>1.022573353862519</v>
       </c>
       <c r="E5">
-        <v>1.018210765091807</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.023577928594323</v>
+        <v>1.023897638100969</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050196981461614</v>
+        <v>1.043192369054837</v>
       </c>
       <c r="J5">
-        <v>1.03269883073063</v>
+        <v>1.022960867786971</v>
       </c>
       <c r="K5">
-        <v>1.038908173959647</v>
+        <v>1.032188795922631</v>
       </c>
       <c r="L5">
-        <v>1.027875042609906</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.033182197830341</v>
+        <v>1.033498357201968</v>
       </c>
       <c r="N5">
-        <v>1.034165381522479</v>
+        <v>1.02441358955448</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014400252595483</v>
+        <v>1.004306346885594</v>
       </c>
       <c r="D6">
-        <v>1.029603055926515</v>
+        <v>1.022713290782593</v>
       </c>
       <c r="E6">
-        <v>1.018514980454678</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.023908570697343</v>
+        <v>1.024071162062263</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050302149541975</v>
+        <v>1.043229387501178</v>
       </c>
       <c r="J6">
-        <v>1.032922430532277</v>
+        <v>1.023072322900756</v>
       </c>
       <c r="K6">
-        <v>1.039104613117469</v>
+        <v>1.032290586295137</v>
       </c>
       <c r="L6">
-        <v>1.028139045846626</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.033472636823794</v>
+        <v>1.033633431556855</v>
       </c>
       <c r="N6">
-        <v>1.034389298861492</v>
+        <v>1.024525202947311</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012288159971459</v>
+        <v>1.002981485564364</v>
       </c>
       <c r="D7">
-        <v>1.027977164570882</v>
+        <v>1.021748036044753</v>
       </c>
       <c r="E7">
-        <v>1.016413767654134</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.021624756937789</v>
+        <v>1.022874445083645</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04957404691477</v>
+        <v>1.042973088305313</v>
       </c>
       <c r="J7">
-        <v>1.031376694569662</v>
+        <v>1.022303168017952</v>
       </c>
       <c r="K7">
-        <v>1.037746368105277</v>
+        <v>1.031587964391905</v>
       </c>
       <c r="L7">
-        <v>1.026315111982801</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.03146609572122</v>
+        <v>1.032701505609149</v>
       </c>
       <c r="N7">
-        <v>1.032841367776511</v>
+        <v>1.02375495577635</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003185978009109</v>
+        <v>0.9973316934999156</v>
       </c>
       <c r="D8">
-        <v>1.020971578646831</v>
+        <v>1.017636313436949</v>
       </c>
       <c r="E8">
-        <v>1.007386248546459</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.011810772418071</v>
+        <v>1.017781975178989</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046402962762414</v>
+        <v>1.041857476714482</v>
       </c>
       <c r="J8">
-        <v>1.024702163757645</v>
+        <v>1.01901758181192</v>
       </c>
       <c r="K8">
-        <v>1.031874776360899</v>
+        <v>1.028582573552157</v>
       </c>
       <c r="L8">
-        <v>1.018467089373826</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.02283310107399</v>
+        <v>1.028726347244599</v>
       </c>
       <c r="N8">
-        <v>1.026157358365162</v>
+        <v>1.020464703661043</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9859832618483577</v>
+        <v>0.9869212745527041</v>
       </c>
       <c r="D9">
-        <v>1.00774407674511</v>
+        <v>1.010081530203863</v>
       </c>
       <c r="E9">
-        <v>0.9904336036101506</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9933721608210144</v>
+        <v>1.008443511551188</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04028521729895</v>
+        <v>1.039717945959494</v>
       </c>
       <c r="J9">
-        <v>1.012040885407749</v>
+        <v>1.012944482820883</v>
       </c>
       <c r="K9">
-        <v>1.020712748878213</v>
+        <v>1.023013132115885</v>
       </c>
       <c r="L9">
-        <v>1.003683819470887</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.006573693232056</v>
+        <v>1.021401068103173</v>
       </c>
       <c r="N9">
-        <v>1.01347809954774</v>
+        <v>1.014382980172845</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9735892627093784</v>
+        <v>0.9796424423914486</v>
       </c>
       <c r="D10">
-        <v>0.9982311527477411</v>
+        <v>1.004818035412058</v>
       </c>
       <c r="E10">
-        <v>0.9782955326276435</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9801622290852505</v>
+        <v>1.00194808934648</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035797531874506</v>
+        <v>1.038168083185071</v>
       </c>
       <c r="J10">
-        <v>1.002891392659779</v>
+        <v>1.008687704877934</v>
       </c>
       <c r="K10">
-        <v>1.012632417890751</v>
+        <v>1.019100840246871</v>
       </c>
       <c r="L10">
-        <v>0.9930680465754317</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9948991425299458</v>
+        <v>1.016282259295897</v>
       </c>
       <c r="N10">
-        <v>1.004315613470607</v>
+        <v>1.010120157116957</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.967965279284714</v>
+        <v>0.9764023944548532</v>
       </c>
       <c r="D11">
-        <v>0.9939206958029119</v>
+        <v>1.002480489465317</v>
       </c>
       <c r="E11">
-        <v>0.9728060970893126</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9741857037579179</v>
+        <v>0.9990656274648526</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03374336272349</v>
+        <v>1.037466049233236</v>
       </c>
       <c r="J11">
-        <v>0.9987342523253955</v>
+        <v>1.006790913257388</v>
       </c>
       <c r="K11">
-        <v>1.008958176817643</v>
+        <v>1.017355778505993</v>
       </c>
       <c r="L11">
-        <v>0.9882597415966511</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9896114311098057</v>
+        <v>1.014005186221374</v>
       </c>
       <c r="N11">
-        <v>1.000152569520118</v>
+        <v>1.008220671834746</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9658338861993538</v>
+        <v>0.9751849058698331</v>
       </c>
       <c r="D12">
-        <v>0.9922882416154155</v>
+        <v>1.00160302659551</v>
       </c>
       <c r="E12">
-        <v>0.9707285045829309</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9719233642237787</v>
+        <v>0.9979839120784862</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032962306799178</v>
+        <v>1.037200485000116</v>
       </c>
       <c r="J12">
-        <v>0.9971580622119359</v>
+        <v>1.006077923783375</v>
       </c>
       <c r="K12">
-        <v>1.007564693275611</v>
+        <v>1.016699579452059</v>
       </c>
       <c r="L12">
-        <v>0.9864388400156211</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9876089882045874</v>
+        <v>1.013149839348136</v>
       </c>
       <c r="N12">
-        <v>0.9985741410359054</v>
+        <v>1.007506669833898</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9662930613485556</v>
+        <v>0.9754467066801472</v>
       </c>
       <c r="D13">
-        <v>0.9926398734856393</v>
+        <v>1.001791668425168</v>
       </c>
       <c r="E13">
-        <v>0.971175961735953</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9724106296309347</v>
+        <v>0.9982164523591588</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033130686639591</v>
+        <v>1.037257669054493</v>
       </c>
       <c r="J13">
-        <v>0.9974976575973672</v>
+        <v>1.006231250724628</v>
       </c>
       <c r="K13">
-        <v>1.00786494053303</v>
+        <v>1.016840704370692</v>
       </c>
       <c r="L13">
-        <v>0.9868310623478788</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9880403143671402</v>
+        <v>1.013333753220209</v>
       </c>
       <c r="N13">
-        <v>0.9989142186857359</v>
+        <v>1.007660214516995</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9677899859555138</v>
+        <v>0.9763020462695322</v>
       </c>
       <c r="D14">
-        <v>0.9937864127191071</v>
+        <v>1.0024081481815</v>
       </c>
       <c r="E14">
-        <v>0.9726351713038565</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9739995869833755</v>
+        <v>0.9989764410014909</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033679177129538</v>
+        <v>1.037444196384507</v>
       </c>
       <c r="J14">
-        <v>0.9986046345012389</v>
+        <v>1.006732151760152</v>
       </c>
       <c r="K14">
-        <v>1.008843591382978</v>
+        <v>1.017301702249703</v>
       </c>
       <c r="L14">
-        <v>0.9881099562773922</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9894467122993069</v>
+        <v>1.013934680234668</v>
       </c>
       <c r="N14">
-        <v>1.000022767623783</v>
+        <v>1.008161826889443</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9687065523488854</v>
+        <v>0.9768271726594566</v>
       </c>
       <c r="D15">
-        <v>0.994488593837984</v>
+        <v>1.002786750429349</v>
       </c>
       <c r="E15">
-        <v>0.9735290152459803</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>0.9749728546471063</v>
+        <v>0.9994432153714795</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034014684741031</v>
+        <v>1.037558481638949</v>
       </c>
       <c r="J15">
-        <v>0.9992823467453239</v>
+        <v>1.007039643467228</v>
       </c>
       <c r="K15">
-        <v>1.009442690765523</v>
+        <v>1.01758466686861</v>
       </c>
       <c r="L15">
-        <v>0.9888932031211158</v>
+        <v>0.9494987508782939</v>
       </c>
       <c r="M15">
-        <v>0.9903080486033333</v>
+        <v>1.014303653430758</v>
       </c>
       <c r="N15">
-        <v>1.00070144229699</v>
+        <v>1.008469755270012</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9739567791262113</v>
+        <v>0.9798555529137437</v>
       </c>
       <c r="D16">
-        <v>0.9985129774093428</v>
+        <v>1.00497190481115</v>
       </c>
       <c r="E16">
-        <v>0.9786546407073724</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="F16">
-        <v>0.9805531494455199</v>
+        <v>1.002137870915102</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035931409080974</v>
+        <v>1.038214010549916</v>
       </c>
       <c r="J16">
-        <v>1.003162950681095</v>
+        <v>1.008812427406553</v>
       </c>
       <c r="K16">
-        <v>1.012872375650679</v>
+        <v>1.019215550841454</v>
       </c>
       <c r="L16">
-        <v>0.9933824450434989</v>
+        <v>0.9519451749175716</v>
       </c>
       <c r="M16">
-        <v>0.995244889841249</v>
+        <v>1.016432067835791</v>
       </c>
       <c r="N16">
-        <v>1.004587557135461</v>
+        <v>1.010245056765873</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9771787348010097</v>
+        <v>0.9817310451912747</v>
       </c>
       <c r="D17">
-        <v>1.000984407475668</v>
+        <v>1.006326667908228</v>
       </c>
       <c r="E17">
-        <v>0.9818049612726457</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.9839822781113311</v>
+        <v>1.003809073128192</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037103094679402</v>
+        <v>1.038616821951783</v>
       </c>
       <c r="J17">
-        <v>1.00554305755502</v>
+        <v>1.0099098382735</v>
       </c>
       <c r="K17">
-        <v>1.01497519845076</v>
+        <v>1.020224669668382</v>
       </c>
       <c r="L17">
-        <v>0.9961397181973581</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.9982771083826023</v>
+        <v>1.017750643499218</v>
       </c>
       <c r="N17">
-        <v>1.006971044034149</v>
+        <v>1.011344026082126</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.979033498866158</v>
+        <v>0.9828165236353149</v>
       </c>
       <c r="D18">
-        <v>1.002407687316574</v>
+        <v>1.007111271421533</v>
       </c>
       <c r="E18">
-        <v>0.9836202119898607</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>0.9859579644588101</v>
+        <v>1.004777150859066</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037775913723075</v>
+        <v>1.038848801101673</v>
       </c>
       <c r="J18">
-        <v>1.006912685018996</v>
+        <v>1.010544797386398</v>
       </c>
       <c r="K18">
-        <v>1.016184989959315</v>
+        <v>1.020808373761317</v>
       </c>
       <c r="L18">
-        <v>0.9977278014987075</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.000023565315808</v>
+        <v>1.018513930818808</v>
       </c>
       <c r="N18">
-        <v>1.008342616526222</v>
+        <v>1.011979886909795</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9796618672202549</v>
+        <v>0.9831852293493276</v>
       </c>
       <c r="D19">
-        <v>1.002889965180962</v>
+        <v>1.00737786215762</v>
       </c>
       <c r="E19">
-        <v>0.9842354851291115</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>0.9866275812016456</v>
+        <v>1.005106118642444</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038003567612696</v>
+        <v>1.038927399963</v>
       </c>
       <c r="J19">
-        <v>1.007376605571618</v>
+        <v>1.010760441177393</v>
       </c>
       <c r="K19">
-        <v>1.016594723136126</v>
+        <v>1.021006581004446</v>
       </c>
       <c r="L19">
-        <v>0.998265960035706</v>
+        <v>0.9546352493816594</v>
       </c>
       <c r="M19">
-        <v>1.000615395431886</v>
+        <v>1.018773218446212</v>
       </c>
       <c r="N19">
-        <v>1.008807195899242</v>
+        <v>1.012195836939708</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.976835614006998</v>
+        <v>0.9815307032516332</v>
       </c>
       <c r="D20">
-        <v>1.00072115332873</v>
+        <v>1.006181897526852</v>
       </c>
       <c r="E20">
-        <v>0.9814692896820577</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9836169219139734</v>
+        <v>1.003630466387609</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036978490217616</v>
+        <v>1.038573912761034</v>
       </c>
       <c r="J20">
-        <v>1.005289641859371</v>
+        <v>1.009792631056711</v>
       </c>
       <c r="K20">
-        <v>1.014751333966399</v>
+        <v>1.020116909769407</v>
       </c>
       <c r="L20">
-        <v>0.9958459980028813</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9979540979274735</v>
+        <v>1.017609777405051</v>
       </c>
       <c r="N20">
-        <v>1.006717268459145</v>
+        <v>1.011226652417645</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9673503818716576</v>
+        <v>0.9760505624014666</v>
       </c>
       <c r="D21">
-        <v>0.993449673919925</v>
+        <v>1.002226867555842</v>
       </c>
       <c r="E21">
-        <v>0.9722065655444657</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9735328824267822</v>
+        <v>0.9987529525719617</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033518170465147</v>
+        <v>1.037389402429129</v>
       </c>
       <c r="J21">
-        <v>0.9982795653990493</v>
+        <v>1.006584885022179</v>
       </c>
       <c r="K21">
-        <v>1.008556216041157</v>
+        <v>1.017166173709056</v>
       </c>
       <c r="L21">
-        <v>0.9877343437642818</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9890336515844009</v>
+        <v>1.013757989226789</v>
       </c>
       <c r="N21">
-        <v>0.9996972368861825</v>
+        <v>1.008014351015811</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>0.9611391102809558</v>
+        <v>0.9725236363027661</v>
       </c>
       <c r="D22">
-        <v>0.9886948104922285</v>
+        <v>0.9996867611134818</v>
       </c>
       <c r="E22">
-        <v>0.9661574725315643</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9669450693732672</v>
+        <v>0.9956220947209348</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031237299799055</v>
+        <v>1.036616814532566</v>
       </c>
       <c r="J22">
-        <v>0.9936850472517413</v>
+        <v>1.004519024902247</v>
       </c>
       <c r="K22">
-        <v>1.004493602113352</v>
+        <v>1.015264425882374</v>
       </c>
       <c r="L22">
-        <v>0.9824305492751726</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9832010766907181</v>
+        <v>1.011280780527146</v>
       </c>
       <c r="N22">
-        <v>0.9950961939961069</v>
+        <v>1.005945557137551</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9644566731338862</v>
+        <v>0.9744012941989381</v>
       </c>
       <c r="D23">
-        <v>0.9912337686334008</v>
+        <v>1.001038530117465</v>
       </c>
       <c r="E23">
-        <v>0.9693868529714809</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9704622897144046</v>
+        <v>0.9972880937605718</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032456915806961</v>
+        <v>1.037029069712517</v>
       </c>
       <c r="J23">
-        <v>0.9961394125606035</v>
+        <v>1.005618959468684</v>
       </c>
       <c r="K23">
-        <v>1.006664019499521</v>
+        <v>1.016277106362112</v>
       </c>
       <c r="L23">
-        <v>0.9852626435065448</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9863155273122788</v>
+        <v>1.012599404061242</v>
       </c>
       <c r="N23">
-        <v>0.997554044785227</v>
+        <v>1.007047053737236</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9769907311086727</v>
+        <v>0.9816212552551217</v>
       </c>
       <c r="D24">
-        <v>1.000840162792019</v>
+        <v>1.006247330327506</v>
       </c>
       <c r="E24">
-        <v>0.9816210338130611</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9837820859765236</v>
+        <v>1.003711191771059</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037034826282179</v>
+        <v>1.038593310756697</v>
       </c>
       <c r="J24">
-        <v>1.005404206934341</v>
+        <v>1.009845607815339</v>
       </c>
       <c r="K24">
-        <v>1.014852540277202</v>
+        <v>1.020165616940388</v>
       </c>
       <c r="L24">
-        <v>0.9959787796722031</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9981001207534882</v>
+        <v>1.017673446669723</v>
       </c>
       <c r="N24">
-        <v>1.006831996229662</v>
+        <v>1.011279704409347</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9905821882011809</v>
+        <v>0.9896697568443916</v>
       </c>
       <c r="D25">
-        <v>1.01127801833606</v>
+        <v>1.012073168763975</v>
       </c>
       <c r="E25">
-        <v>0.9949529317032614</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9982888384196771</v>
+        <v>1.010903395211848</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041934673604167</v>
+        <v>1.040292314712333</v>
       </c>
       <c r="J25">
-        <v>1.01543070990854</v>
+        <v>1.0145498472702</v>
       </c>
       <c r="K25">
-        <v>1.023703744465523</v>
+        <v>1.024486911375778</v>
       </c>
       <c r="L25">
-        <v>1.007630105448386</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.010913776172986</v>
+        <v>1.023334775515748</v>
       </c>
       <c r="N25">
-        <v>1.016872737988141</v>
+        <v>1.015990624423818</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9958474773685022</v>
+        <v>1.026573563065708</v>
       </c>
       <c r="D2">
-        <v>1.01655744704924</v>
+        <v>1.034124669515817</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>1.016447050586159</v>
+        <v>1.041235863140376</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041558717669175</v>
+        <v>1.031049196888618</v>
       </c>
       <c r="J2">
-        <v>1.018153103042577</v>
+        <v>1.031736249692989</v>
       </c>
       <c r="K2">
-        <v>1.02779083078388</v>
+        <v>1.036925044196291</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.027681910222102</v>
+        <v>1.044015950788455</v>
       </c>
       <c r="N2">
-        <v>1.01959899723269</v>
+        <v>1.033201433509366</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.000203774654157</v>
+        <v>1.027495907404926</v>
       </c>
       <c r="D3">
-        <v>1.019725566545332</v>
+        <v>1.034815832032269</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.020368556385845</v>
+        <v>1.042121140327257</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04242903286212</v>
+        <v>1.031170432803451</v>
       </c>
       <c r="J3">
-        <v>1.020688886108071</v>
+        <v>1.032298551266623</v>
       </c>
       <c r="K3">
-        <v>1.03011212600388</v>
+        <v>1.037425644031639</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.030747285786279</v>
+        <v>1.044711618174526</v>
       </c>
       <c r="N3">
-        <v>1.022138381400996</v>
+        <v>1.03376453361572</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002966092311159</v>
+        <v>1.028093147393348</v>
       </c>
       <c r="D4">
-        <v>1.021736823260428</v>
+        <v>1.035263256265587</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.022860546446001</v>
+        <v>1.042694665044415</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042970098027664</v>
+        <v>1.031247571963841</v>
       </c>
       <c r="J4">
-        <v>1.02229422826518</v>
+        <v>1.032662210493352</v>
       </c>
       <c r="K4">
-        <v>1.031579795717281</v>
+        <v>1.037749085541785</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.032690677083916</v>
+        <v>1.045161816684257</v>
       </c>
       <c r="N4">
-        <v>1.023746003328104</v>
+        <v>1.034128709280264</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004114309094622</v>
+        <v>1.028344326920691</v>
       </c>
       <c r="D5">
-        <v>1.022573353862519</v>
+        <v>1.035451398788775</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.023897638100969</v>
+        <v>1.042935938748832</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043192369054837</v>
+        <v>1.031279687421343</v>
       </c>
       <c r="J5">
-        <v>1.022960867786971</v>
+        <v>1.032815046916827</v>
       </c>
       <c r="K5">
-        <v>1.032188795922631</v>
+        <v>1.037884944301923</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.033498357201968</v>
+        <v>1.045351092014607</v>
       </c>
       <c r="N5">
-        <v>1.02441358955448</v>
+        <v>1.034281762748991</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004306346885594</v>
+        <v>1.028386506891759</v>
       </c>
       <c r="D6">
-        <v>1.022713290782593</v>
+        <v>1.035482991363012</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.024071162062263</v>
+        <v>1.042976459232158</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043229387501178</v>
+        <v>1.031285061327415</v>
       </c>
       <c r="J6">
-        <v>1.023072322900756</v>
+        <v>1.032840706102407</v>
       </c>
       <c r="K6">
-        <v>1.032290586295137</v>
+        <v>1.037907748747595</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.033633431556855</v>
+        <v>1.045382872833029</v>
       </c>
       <c r="N6">
-        <v>1.024525202947311</v>
+        <v>1.034307458373557</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002981485564364</v>
+        <v>1.02809650327554</v>
       </c>
       <c r="D7">
-        <v>1.021748036044753</v>
+        <v>1.035265770058805</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.022874445083645</v>
+        <v>1.04269788831335</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042973088305313</v>
+        <v>1.031248002326064</v>
       </c>
       <c r="J7">
-        <v>1.022303168017952</v>
+        <v>1.032664252882831</v>
       </c>
       <c r="K7">
-        <v>1.031587964391905</v>
+        <v>1.037750901350601</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.032701505609149</v>
+        <v>1.045164345745496</v>
       </c>
       <c r="N7">
-        <v>1.02375495577635</v>
+        <v>1.03413075457017</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9973316934999156</v>
+        <v>1.02688518572489</v>
       </c>
       <c r="D8">
-        <v>1.017636313436949</v>
+        <v>1.034358209657635</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>1.017781975178989</v>
+        <v>1.041534902661039</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041857476714482</v>
+        <v>1.031090439742833</v>
       </c>
       <c r="J8">
-        <v>1.01901758181192</v>
+        <v>1.031926320344751</v>
       </c>
       <c r="K8">
-        <v>1.028582573552157</v>
+        <v>1.037094322977899</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.028726347244599</v>
+        <v>1.044251042607031</v>
       </c>
       <c r="N8">
-        <v>1.020464703661043</v>
+        <v>1.033391774083244</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9869212745527041</v>
+        <v>1.024753965381754</v>
       </c>
       <c r="D9">
-        <v>1.010081530203863</v>
+        <v>1.032760539237387</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.008443511551188</v>
+        <v>1.039490935660725</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039717945959494</v>
+        <v>1.030802797228527</v>
       </c>
       <c r="J9">
-        <v>1.012944482820883</v>
+        <v>1.030624598370008</v>
       </c>
       <c r="K9">
-        <v>1.023013132115885</v>
+        <v>1.035933720892148</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.021401068103173</v>
+        <v>1.042642167453311</v>
       </c>
       <c r="N9">
-        <v>1.014382980172845</v>
+        <v>1.032088203513987</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9796424423914486</v>
+        <v>1.023335417299284</v>
       </c>
       <c r="D10">
-        <v>1.004818035412058</v>
+        <v>1.031696568793661</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.00194808934648</v>
+        <v>1.038131988231047</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038168083185071</v>
+        <v>1.030604347639604</v>
       </c>
       <c r="J10">
-        <v>1.008687704877934</v>
+        <v>1.029755909357289</v>
       </c>
       <c r="K10">
-        <v>1.019100840246871</v>
+        <v>1.03515761381342</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.016282259295897</v>
+        <v>1.041569986716987</v>
       </c>
       <c r="N10">
-        <v>1.010120157116957</v>
+        <v>1.03121828086323</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9764023944548532</v>
+        <v>1.0227217205313</v>
       </c>
       <c r="D11">
-        <v>1.002480489465317</v>
+        <v>1.031236147740429</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9990656274648526</v>
+        <v>1.037544445094228</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037466049233236</v>
+        <v>1.030516837485123</v>
       </c>
       <c r="J11">
-        <v>1.006790913257388</v>
+        <v>1.029379562600141</v>
       </c>
       <c r="K11">
-        <v>1.017355778505993</v>
+        <v>1.034821001999965</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.014005186221374</v>
+        <v>1.04110583256173</v>
       </c>
       <c r="N11">
-        <v>1.008220671834746</v>
+        <v>1.030841399650519</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9751849058698331</v>
+        <v>1.022493848931058</v>
       </c>
       <c r="D12">
-        <v>1.00160302659551</v>
+        <v>1.031065171198582</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9979839120784862</v>
+        <v>1.037326340658</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037200485000116</v>
+        <v>1.030484095451401</v>
       </c>
       <c r="J12">
-        <v>1.006077923783375</v>
+        <v>1.029239741790683</v>
       </c>
       <c r="K12">
-        <v>1.016699579452059</v>
+        <v>1.034695887489517</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.013149839348136</v>
+        <v>1.040933442441586</v>
       </c>
       <c r="N12">
-        <v>1.007506669833898</v>
+        <v>1.030701380279474</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9754467066801472</v>
+        <v>1.022542724404405</v>
       </c>
       <c r="D13">
-        <v>1.001791668425168</v>
+        <v>1.031101844216873</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9982164523591588</v>
+        <v>1.037373118655376</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037257669054493</v>
+        <v>1.030491129438834</v>
       </c>
       <c r="J13">
-        <v>1.006231250724628</v>
+        <v>1.029269735119459</v>
       </c>
       <c r="K13">
-        <v>1.016840704370692</v>
+        <v>1.034722728665232</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.013333753220209</v>
+        <v>1.040970419899359</v>
       </c>
       <c r="N13">
-        <v>1.007660214516995</v>
+        <v>1.030731416202217</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9763020462695322</v>
+        <v>1.022702882900872</v>
       </c>
       <c r="D14">
-        <v>1.0024081481815</v>
+        <v>1.03122201385304</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9989764410014909</v>
+        <v>1.037526413745728</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037444196384507</v>
+        <v>1.030514135847287</v>
       </c>
       <c r="J14">
-        <v>1.006732151760152</v>
+        <v>1.029368005551607</v>
       </c>
       <c r="K14">
-        <v>1.017301702249703</v>
+        <v>1.034810661659865</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.013934680234668</v>
+        <v>1.041091582378174</v>
       </c>
       <c r="N14">
-        <v>1.008161826889443</v>
+        <v>1.030829826189651</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9768271726594566</v>
+        <v>1.022801572825163</v>
       </c>
       <c r="D15">
-        <v>1.002786750429349</v>
+        <v>1.031296060251784</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9994432153714795</v>
+        <v>1.037620881877099</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037558481638949</v>
+        <v>1.030528279483882</v>
       </c>
       <c r="J15">
-        <v>1.007039643467228</v>
+        <v>1.029428549412427</v>
       </c>
       <c r="K15">
-        <v>1.01758466686861</v>
+        <v>1.034864829260551</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.014303653430758</v>
+        <v>1.041166236924647</v>
       </c>
       <c r="N15">
-        <v>1.008469755270012</v>
+        <v>1.030890456029698</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9798555529137437</v>
+        <v>1.023376157876436</v>
       </c>
       <c r="D16">
-        <v>1.00497190481115</v>
+        <v>1.031727131558394</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.002137870915102</v>
+        <v>1.038171000416688</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038214010549916</v>
+        <v>1.03061012215376</v>
       </c>
       <c r="J16">
-        <v>1.008812427406553</v>
+        <v>1.029780882149971</v>
       </c>
       <c r="K16">
-        <v>1.019215550841454</v>
+        <v>1.035179942086664</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.016432067835791</v>
+        <v>1.041600793468487</v>
       </c>
       <c r="N16">
-        <v>1.010245056765873</v>
+        <v>1.031243289120142</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9817310451912747</v>
+        <v>1.02373672621567</v>
       </c>
       <c r="D17">
-        <v>1.006326667908228</v>
+        <v>1.031997608603892</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.003809073128192</v>
+        <v>1.038516314614056</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038616821951783</v>
+        <v>1.030661037220205</v>
       </c>
       <c r="J17">
-        <v>1.0099098382735</v>
+        <v>1.030001838668637</v>
       </c>
       <c r="K17">
-        <v>1.020224669668382</v>
+        <v>1.035377456930372</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.017750643499218</v>
+        <v>1.041873408918345</v>
       </c>
       <c r="N17">
-        <v>1.011344026082126</v>
+        <v>1.031464559422408</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9828165236353149</v>
+        <v>1.023947092040888</v>
       </c>
       <c r="D18">
-        <v>1.007111271421533</v>
+        <v>1.032155400703144</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.004777150859066</v>
+        <v>1.038717816319698</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038848801101673</v>
+        <v>1.030690582617222</v>
       </c>
       <c r="J18">
-        <v>1.010544797386398</v>
+        <v>1.030130699631832</v>
       </c>
       <c r="K18">
-        <v>1.020808373761317</v>
+        <v>1.035492610632731</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.018513930818808</v>
+        <v>1.042032431152201</v>
       </c>
       <c r="N18">
-        <v>1.011979886909795</v>
+        <v>1.031593603382952</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9831852293493276</v>
+        <v>1.024018830211157</v>
       </c>
       <c r="D19">
-        <v>1.00737786215762</v>
+        <v>1.032209208335798</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.005106118642444</v>
+        <v>1.03878653769692</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038927399963</v>
+        <v>1.030700630951134</v>
       </c>
       <c r="J19">
-        <v>1.010760441177393</v>
+        <v>1.030174634597584</v>
       </c>
       <c r="K19">
-        <v>1.021006581004446</v>
+        <v>1.035531865984849</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.018773218446212</v>
+        <v>1.04208665532427</v>
       </c>
       <c r="N19">
-        <v>1.012195836939708</v>
+        <v>1.031637600741395</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9815307032516332</v>
+        <v>1.023698035216734</v>
       </c>
       <c r="D20">
-        <v>1.006181897526852</v>
+        <v>1.031968586130239</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.003630466387609</v>
+        <v>1.038479256785409</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038573912761034</v>
+        <v>1.030655590285317</v>
       </c>
       <c r="J20">
-        <v>1.009792631056711</v>
+        <v>1.029978134107831</v>
       </c>
       <c r="K20">
-        <v>1.020116909769407</v>
+        <v>1.035356270968764</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.017609777405051</v>
+        <v>1.041844158790549</v>
       </c>
       <c r="N20">
-        <v>1.011226652417645</v>
+        <v>1.031440821198408</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9760505624014666</v>
+        <v>1.022655717924516</v>
       </c>
       <c r="D21">
-        <v>1.002226867555842</v>
+        <v>1.031186625654418</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9987529525719617</v>
+        <v>1.037481268416745</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037389402429129</v>
+        <v>1.03050736756776</v>
       </c>
       <c r="J21">
-        <v>1.006584885022179</v>
+        <v>1.029339068147643</v>
       </c>
       <c r="K21">
-        <v>1.017166173709056</v>
+        <v>1.034784769836614</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.013757989226789</v>
+        <v>1.041055902557329</v>
       </c>
       <c r="N21">
-        <v>1.008014351015811</v>
+        <v>1.030800847691254</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9725236363027661</v>
+        <v>1.022000850666293</v>
       </c>
       <c r="D22">
-        <v>0.9996867611134818</v>
+        <v>1.030695233328598</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9956220947209348</v>
+        <v>1.036854576759437</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036616814532566</v>
+        <v>1.030412803895215</v>
       </c>
       <c r="J22">
-        <v>1.004519024902247</v>
+        <v>1.028937095484971</v>
       </c>
       <c r="K22">
-        <v>1.015264425882374</v>
+        <v>1.034424971107963</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.011280780527146</v>
+        <v>1.040560395888168</v>
       </c>
       <c r="N22">
-        <v>1.005945557137551</v>
+        <v>1.030398304181294</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9744012941989381</v>
+        <v>1.022347962456666</v>
       </c>
       <c r="D23">
-        <v>1.001038530117465</v>
+        <v>1.030955704814373</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9972880937605718</v>
+        <v>1.037186723113984</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037029069712517</v>
+        <v>1.030463063583734</v>
       </c>
       <c r="J23">
-        <v>1.005618959468684</v>
+        <v>1.029150204255886</v>
       </c>
       <c r="K23">
-        <v>1.016277106362112</v>
+        <v>1.034615751721222</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.012599404061242</v>
+        <v>1.040823063312703</v>
       </c>
       <c r="N23">
-        <v>1.007047053737236</v>
+        <v>1.030611715591107</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9816212552551217</v>
+        <v>1.023715517851833</v>
       </c>
       <c r="D24">
-        <v>1.006247330327506</v>
+        <v>1.03198170005228</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.003711191771059</v>
+        <v>1.03849600135816</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038593310756697</v>
+        <v>1.030658051991984</v>
       </c>
       <c r="J24">
-        <v>1.009845607815339</v>
+        <v>1.029988845238033</v>
       </c>
       <c r="K24">
-        <v>1.020165616940388</v>
+        <v>1.035365844157869</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.017673446669723</v>
+        <v>1.041857375632687</v>
       </c>
       <c r="N24">
-        <v>1.011279704409347</v>
+        <v>1.031451547539643</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9896697568443916</v>
+        <v>1.025304542237465</v>
       </c>
       <c r="D25">
-        <v>1.012073168763975</v>
+        <v>1.033173380398368</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.010903395211848</v>
+        <v>1.040018705188613</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040292314712333</v>
+        <v>1.03087834096378</v>
       </c>
       <c r="J25">
-        <v>1.0145498472702</v>
+        <v>1.030961283249053</v>
       </c>
       <c r="K25">
-        <v>1.024486911375778</v>
+        <v>1.036234187345478</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.023334775515748</v>
+        <v>1.043058035037453</v>
       </c>
       <c r="N25">
-        <v>1.015990624423818</v>
+        <v>1.032425366524179</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026573563065708</v>
+        <v>0.995847477368503</v>
       </c>
       <c r="D2">
-        <v>1.034124669515817</v>
+        <v>1.01655744704924</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.041235863140376</v>
+        <v>1.016447050586159</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031049196888618</v>
+        <v>1.041558717669175</v>
       </c>
       <c r="J2">
-        <v>1.031736249692989</v>
+        <v>1.018153103042577</v>
       </c>
       <c r="K2">
-        <v>1.036925044196291</v>
+        <v>1.027790830783881</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.044015950788455</v>
+        <v>1.027681910222103</v>
       </c>
       <c r="N2">
-        <v>1.033201433509366</v>
+        <v>1.01959899723269</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027495907404926</v>
+        <v>1.000203774654158</v>
       </c>
       <c r="D3">
-        <v>1.034815832032269</v>
+        <v>1.019725566545332</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.042121140327257</v>
+        <v>1.020368556385846</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031170432803451</v>
+        <v>1.04242903286212</v>
       </c>
       <c r="J3">
-        <v>1.032298551266623</v>
+        <v>1.020688886108072</v>
       </c>
       <c r="K3">
-        <v>1.037425644031639</v>
+        <v>1.030112126003881</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.044711618174526</v>
+        <v>1.03074728578628</v>
       </c>
       <c r="N3">
-        <v>1.03376453361572</v>
+        <v>1.022138381400997</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028093147393348</v>
+        <v>1.002966092311159</v>
       </c>
       <c r="D4">
-        <v>1.035263256265587</v>
+        <v>1.021736823260428</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.042694665044415</v>
+        <v>1.022860546446002</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031247571963841</v>
+        <v>1.042970098027664</v>
       </c>
       <c r="J4">
-        <v>1.032662210493352</v>
+        <v>1.02229422826518</v>
       </c>
       <c r="K4">
-        <v>1.037749085541785</v>
+        <v>1.031579795717281</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.045161816684257</v>
+        <v>1.032690677083916</v>
       </c>
       <c r="N4">
-        <v>1.034128709280264</v>
+        <v>1.023746003328104</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028344326920691</v>
+        <v>1.004114309094622</v>
       </c>
       <c r="D5">
-        <v>1.035451398788775</v>
+        <v>1.022573353862518</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.042935938748832</v>
+        <v>1.023897638100969</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031279687421343</v>
+        <v>1.043192369054837</v>
       </c>
       <c r="J5">
-        <v>1.032815046916827</v>
+        <v>1.02296086778697</v>
       </c>
       <c r="K5">
-        <v>1.037884944301923</v>
+        <v>1.032188795922631</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.045351092014607</v>
+        <v>1.033498357201968</v>
       </c>
       <c r="N5">
-        <v>1.034281762748991</v>
+        <v>1.024413589554479</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028386506891759</v>
+        <v>1.004306346885594</v>
       </c>
       <c r="D6">
-        <v>1.035482991363012</v>
+        <v>1.022713290782594</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.042976459232158</v>
+        <v>1.024071162062264</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031285061327415</v>
+        <v>1.043229387501178</v>
       </c>
       <c r="J6">
-        <v>1.032840706102407</v>
+        <v>1.023072322900757</v>
       </c>
       <c r="K6">
-        <v>1.037907748747595</v>
+        <v>1.032290586295138</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.045382872833029</v>
+        <v>1.033633431556856</v>
       </c>
       <c r="N6">
-        <v>1.034307458373557</v>
+        <v>1.024525202947312</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02809650327554</v>
+        <v>1.002981485564364</v>
       </c>
       <c r="D7">
-        <v>1.035265770058805</v>
+        <v>1.021748036044753</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.04269788831335</v>
+        <v>1.022874445083646</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031248002326064</v>
+        <v>1.042973088305313</v>
       </c>
       <c r="J7">
-        <v>1.032664252882831</v>
+        <v>1.022303168017952</v>
       </c>
       <c r="K7">
-        <v>1.037750901350601</v>
+        <v>1.031587964391905</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.045164345745496</v>
+        <v>1.032701505609148</v>
       </c>
       <c r="N7">
-        <v>1.03413075457017</v>
+        <v>1.02375495577635</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02688518572489</v>
+        <v>0.9973316934999152</v>
       </c>
       <c r="D8">
-        <v>1.034358209657635</v>
+        <v>1.017636313436949</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.041534902661039</v>
+        <v>1.017781975178989</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031090439742833</v>
+        <v>1.041857476714482</v>
       </c>
       <c r="J8">
-        <v>1.031926320344751</v>
+        <v>1.01901758181192</v>
       </c>
       <c r="K8">
-        <v>1.037094322977899</v>
+        <v>1.028582573552157</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.044251042607031</v>
+        <v>1.028726347244599</v>
       </c>
       <c r="N8">
-        <v>1.033391774083244</v>
+        <v>1.020464703661043</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024753965381754</v>
+        <v>0.9869212745527043</v>
       </c>
       <c r="D9">
-        <v>1.032760539237387</v>
+        <v>1.010081530203863</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.039490935660725</v>
+        <v>1.008443511551188</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030802797228527</v>
+        <v>1.039717945959494</v>
       </c>
       <c r="J9">
-        <v>1.030624598370008</v>
+        <v>1.012944482820883</v>
       </c>
       <c r="K9">
-        <v>1.035933720892148</v>
+        <v>1.023013132115885</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.042642167453311</v>
+        <v>1.021401068103173</v>
       </c>
       <c r="N9">
-        <v>1.032088203513987</v>
+        <v>1.014382980172845</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023335417299284</v>
+        <v>0.9796424423914487</v>
       </c>
       <c r="D10">
-        <v>1.031696568793661</v>
+        <v>1.004818035412059</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.038131988231047</v>
+        <v>1.001948089346481</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030604347639604</v>
+        <v>1.038168083185071</v>
       </c>
       <c r="J10">
-        <v>1.029755909357289</v>
+        <v>1.008687704877934</v>
       </c>
       <c r="K10">
-        <v>1.03515761381342</v>
+        <v>1.019100840246871</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.041569986716987</v>
+        <v>1.016282259295897</v>
       </c>
       <c r="N10">
-        <v>1.03121828086323</v>
+        <v>1.010120157116957</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.0227217205313</v>
+        <v>0.9764023944548539</v>
       </c>
       <c r="D11">
-        <v>1.031236147740429</v>
+        <v>1.002480489465317</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.037544445094228</v>
+        <v>0.9990656274648528</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030516837485123</v>
+        <v>1.037466049233236</v>
       </c>
       <c r="J11">
-        <v>1.029379562600141</v>
+        <v>1.006790913257389</v>
       </c>
       <c r="K11">
-        <v>1.034821001999965</v>
+        <v>1.017355778505993</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.04110583256173</v>
+        <v>1.014005186221374</v>
       </c>
       <c r="N11">
-        <v>1.030841399650519</v>
+        <v>1.008220671834746</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022493848931058</v>
+        <v>0.975184905869833</v>
       </c>
       <c r="D12">
-        <v>1.031065171198582</v>
+        <v>1.001603026595509</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.037326340658</v>
+        <v>0.9979839120784858</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030484095451401</v>
+        <v>1.037200485000116</v>
       </c>
       <c r="J12">
-        <v>1.029239741790683</v>
+        <v>1.006077923783375</v>
       </c>
       <c r="K12">
-        <v>1.034695887489517</v>
+        <v>1.016699579452058</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.040933442441586</v>
+        <v>1.013149839348135</v>
       </c>
       <c r="N12">
-        <v>1.030701380279474</v>
+        <v>1.007506669833898</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022542724404405</v>
+        <v>0.975446706680147</v>
       </c>
       <c r="D13">
-        <v>1.031101844216873</v>
+        <v>1.001791668425168</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.037373118655376</v>
+        <v>0.9982164523591585</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030491129438834</v>
+        <v>1.037257669054493</v>
       </c>
       <c r="J13">
-        <v>1.029269735119459</v>
+        <v>1.006231250724628</v>
       </c>
       <c r="K13">
-        <v>1.034722728665232</v>
+        <v>1.016840704370692</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.040970419899359</v>
+        <v>1.013333753220208</v>
       </c>
       <c r="N13">
-        <v>1.030731416202217</v>
+        <v>1.007660214516994</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022702882900872</v>
+        <v>0.9763020462695327</v>
       </c>
       <c r="D14">
-        <v>1.03122201385304</v>
+        <v>1.0024081481815</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.037526413745728</v>
+        <v>0.9989764410014913</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030514135847287</v>
+        <v>1.037444196384508</v>
       </c>
       <c r="J14">
-        <v>1.029368005551607</v>
+        <v>1.006732151760152</v>
       </c>
       <c r="K14">
-        <v>1.034810661659865</v>
+        <v>1.017301702249704</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.041091582378174</v>
+        <v>1.013934680234668</v>
       </c>
       <c r="N14">
-        <v>1.030829826189651</v>
+        <v>1.008161826889443</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022801572825163</v>
+        <v>0.9768271726594564</v>
       </c>
       <c r="D15">
-        <v>1.031296060251784</v>
+        <v>1.002786750429348</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.037620881877099</v>
+        <v>0.9994432153714788</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030528279483882</v>
+        <v>1.037558481638949</v>
       </c>
       <c r="J15">
-        <v>1.029428549412427</v>
+        <v>1.007039643467227</v>
       </c>
       <c r="K15">
-        <v>1.034864829260551</v>
+        <v>1.017584666868609</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.041166236924647</v>
+        <v>1.014303653430757</v>
       </c>
       <c r="N15">
-        <v>1.030890456029698</v>
+        <v>1.008469755270012</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023376157876436</v>
+        <v>0.9798555529137439</v>
       </c>
       <c r="D16">
-        <v>1.031727131558394</v>
+        <v>1.00497190481115</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.038171000416688</v>
+        <v>1.002137870915102</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03061012215376</v>
+        <v>1.038214010549916</v>
       </c>
       <c r="J16">
-        <v>1.029780882149971</v>
+        <v>1.008812427406554</v>
       </c>
       <c r="K16">
-        <v>1.035179942086664</v>
+        <v>1.019215550841455</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.041600793468487</v>
+        <v>1.016432067835791</v>
       </c>
       <c r="N16">
-        <v>1.031243289120142</v>
+        <v>1.010245056765873</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02373672621567</v>
+        <v>0.9817310451912733</v>
       </c>
       <c r="D17">
-        <v>1.031997608603892</v>
+        <v>1.006326667908226</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.038516314614056</v>
+        <v>1.00380907312819</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030661037220205</v>
+        <v>1.038616821951782</v>
       </c>
       <c r="J17">
-        <v>1.030001838668637</v>
+        <v>1.009909838273499</v>
       </c>
       <c r="K17">
-        <v>1.035377456930372</v>
+        <v>1.020224669668381</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.041873408918345</v>
+        <v>1.017750643499217</v>
       </c>
       <c r="N17">
-        <v>1.031464559422408</v>
+        <v>1.011344026082124</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023947092040888</v>
+        <v>0.9828165236353156</v>
       </c>
       <c r="D18">
-        <v>1.032155400703144</v>
+        <v>1.007111271421533</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.038717816319698</v>
+        <v>1.004777150859066</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030690582617222</v>
+        <v>1.038848801101673</v>
       </c>
       <c r="J18">
-        <v>1.030130699631832</v>
+        <v>1.010544797386398</v>
       </c>
       <c r="K18">
-        <v>1.035492610632731</v>
+        <v>1.020808373761318</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.042032431152201</v>
+        <v>1.018513930818808</v>
       </c>
       <c r="N18">
-        <v>1.031593603382952</v>
+        <v>1.011979886909795</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024018830211157</v>
+        <v>0.9831852293493277</v>
       </c>
       <c r="D19">
-        <v>1.032209208335798</v>
+        <v>1.00737786215762</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.03878653769692</v>
+        <v>1.005106118642444</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030700630951134</v>
+        <v>1.038927399963</v>
       </c>
       <c r="J19">
-        <v>1.030174634597584</v>
+        <v>1.010760441177393</v>
       </c>
       <c r="K19">
-        <v>1.035531865984849</v>
+        <v>1.021006581004446</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.04208665532427</v>
+        <v>1.018773218446212</v>
       </c>
       <c r="N19">
-        <v>1.031637600741395</v>
+        <v>1.012195836939709</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023698035216734</v>
+        <v>0.9815307032516332</v>
       </c>
       <c r="D20">
-        <v>1.031968586130239</v>
+        <v>1.006181897526851</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.038479256785409</v>
+        <v>1.003630466387609</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030655590285317</v>
+        <v>1.038573912761034</v>
       </c>
       <c r="J20">
-        <v>1.029978134107831</v>
+        <v>1.009792631056711</v>
       </c>
       <c r="K20">
-        <v>1.035356270968764</v>
+        <v>1.020116909769407</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.041844158790549</v>
+        <v>1.017609777405051</v>
       </c>
       <c r="N20">
-        <v>1.031440821198408</v>
+        <v>1.011226652417645</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022655717924516</v>
+        <v>0.9760505624014661</v>
       </c>
       <c r="D21">
-        <v>1.031186625654418</v>
+        <v>1.002226867555841</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.037481268416745</v>
+        <v>0.9987529525719606</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03050736756776</v>
+        <v>1.037389402429128</v>
       </c>
       <c r="J21">
-        <v>1.029339068147643</v>
+        <v>1.006584885022178</v>
       </c>
       <c r="K21">
-        <v>1.034784769836614</v>
+        <v>1.017166173709056</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.041055902557329</v>
+        <v>1.013757989226788</v>
       </c>
       <c r="N21">
-        <v>1.030800847691254</v>
+        <v>1.00801435101581</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022000850666293</v>
+        <v>0.9725236363027653</v>
       </c>
       <c r="D22">
-        <v>1.030695233328598</v>
+        <v>0.999686761113481</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.036854576759437</v>
+        <v>0.9956220947209339</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030412803895215</v>
+        <v>1.036616814532566</v>
       </c>
       <c r="J22">
-        <v>1.028937095484971</v>
+        <v>1.004519024902246</v>
       </c>
       <c r="K22">
-        <v>1.034424971107963</v>
+        <v>1.015264425882373</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.040560395888168</v>
+        <v>1.011280780527145</v>
       </c>
       <c r="N22">
-        <v>1.030398304181294</v>
+        <v>1.00594555713755</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022347962456666</v>
+        <v>0.9744012941989374</v>
       </c>
       <c r="D23">
-        <v>1.030955704814373</v>
+        <v>1.001038530117464</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.037186723113984</v>
+        <v>0.9972880937605709</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030463063583734</v>
+        <v>1.037029069712517</v>
       </c>
       <c r="J23">
-        <v>1.029150204255886</v>
+        <v>1.005618959468683</v>
       </c>
       <c r="K23">
-        <v>1.034615751721222</v>
+        <v>1.016277106362111</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.040823063312703</v>
+        <v>1.012599404061241</v>
       </c>
       <c r="N23">
-        <v>1.030611715591107</v>
+        <v>1.007047053737236</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023715517851833</v>
+        <v>0.9816212552551216</v>
       </c>
       <c r="D24">
-        <v>1.03198170005228</v>
+        <v>1.006247330327505</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.03849600135816</v>
+        <v>1.003711191771059</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030658051991984</v>
+        <v>1.038593310756697</v>
       </c>
       <c r="J24">
-        <v>1.029988845238033</v>
+        <v>1.009845607815339</v>
       </c>
       <c r="K24">
-        <v>1.035365844157869</v>
+        <v>1.020165616940388</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.041857375632687</v>
+        <v>1.017673446669722</v>
       </c>
       <c r="N24">
-        <v>1.031451547539643</v>
+        <v>1.011279704409347</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025304542237465</v>
+        <v>0.9896697568443918</v>
       </c>
       <c r="D25">
-        <v>1.033173380398368</v>
+        <v>1.012073168763976</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.040018705188613</v>
+        <v>1.010903395211849</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03087834096378</v>
+        <v>1.040292314712333</v>
       </c>
       <c r="J25">
-        <v>1.030961283249053</v>
+        <v>1.014549847270201</v>
       </c>
       <c r="K25">
-        <v>1.036234187345478</v>
+        <v>1.024486911375778</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.043058035037453</v>
+        <v>1.023334775515749</v>
       </c>
       <c r="N25">
-        <v>1.032425366524179</v>
+        <v>1.015990624423819</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.995847477368503</v>
+        <v>1.008151716634502</v>
       </c>
       <c r="D2">
-        <v>1.01655744704924</v>
+        <v>1.026431583292838</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>1.020540319710172</v>
       </c>
       <c r="F2">
-        <v>1.016447050586159</v>
+        <v>1.028180672925371</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041558717669175</v>
+        <v>1.048603013570075</v>
       </c>
       <c r="J2">
-        <v>1.018153103042577</v>
+        <v>1.030091315228727</v>
       </c>
       <c r="K2">
-        <v>1.027790830783881</v>
+        <v>1.037534567424043</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>1.031720723988027</v>
       </c>
       <c r="M2">
-        <v>1.027681910222103</v>
+        <v>1.039260885219959</v>
       </c>
       <c r="N2">
-        <v>1.01959899723269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014031229398504</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.039644747099836</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.03761045641884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000203774654158</v>
+        <v>1.011333836186963</v>
       </c>
       <c r="D3">
-        <v>1.019725566545332</v>
+        <v>1.028504159867599</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>1.023938045921948</v>
       </c>
       <c r="F3">
-        <v>1.020368556385846</v>
+        <v>1.031303572621217</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04242903286212</v>
+        <v>1.04934744342679</v>
       </c>
       <c r="J3">
-        <v>1.020688886108072</v>
+        <v>1.031520226582491</v>
       </c>
       <c r="K3">
-        <v>1.030112126003881</v>
+        <v>1.038784866015597</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>1.034273529611818</v>
       </c>
       <c r="M3">
-        <v>1.03074728578628</v>
+        <v>1.041550992717851</v>
       </c>
       <c r="N3">
-        <v>1.022138381400997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014503626025069</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.041457213510229</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038491858408585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002966092311159</v>
+        <v>1.013356862876922</v>
       </c>
       <c r="D4">
-        <v>1.021736823260428</v>
+        <v>1.029824666768131</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>1.026105610754528</v>
       </c>
       <c r="F4">
-        <v>1.022860546446002</v>
+        <v>1.033296281211327</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042970098027664</v>
+        <v>1.04981048201499</v>
       </c>
       <c r="J4">
-        <v>1.02229422826518</v>
+        <v>1.032424961836979</v>
       </c>
       <c r="K4">
-        <v>1.031579795717281</v>
+        <v>1.039575981817868</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>1.035898851697709</v>
       </c>
       <c r="M4">
-        <v>1.032690677083916</v>
+        <v>1.043008794949165</v>
       </c>
       <c r="N4">
-        <v>1.023746003328104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014802844892436</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.042610963785132</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.03905214239488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004114309094622</v>
+        <v>1.014201145829748</v>
       </c>
       <c r="D5">
-        <v>1.022573353862518</v>
+        <v>1.03037845677198</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>1.027010597889898</v>
       </c>
       <c r="F5">
-        <v>1.023897638100969</v>
+        <v>1.034128260963054</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043192369054837</v>
+        <v>1.050002587424229</v>
       </c>
       <c r="J5">
-        <v>1.02296086778697</v>
+        <v>1.032802803505441</v>
       </c>
       <c r="K5">
-        <v>1.032188795922631</v>
+        <v>1.039907794480429</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>1.036576891890164</v>
       </c>
       <c r="M5">
-        <v>1.033498357201968</v>
+        <v>1.043616798623019</v>
       </c>
       <c r="N5">
-        <v>1.024413589554479</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014928058374842</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.04309215636439</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.039293939213872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004306346885594</v>
+        <v>1.014345103781236</v>
       </c>
       <c r="D6">
-        <v>1.022713290782594</v>
+        <v>1.030475389362019</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>1.027163293469045</v>
       </c>
       <c r="F6">
-        <v>1.024071162062264</v>
+        <v>1.034268510060387</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043229387501178</v>
+        <v>1.050036842655797</v>
       </c>
       <c r="J6">
-        <v>1.023072322900757</v>
+        <v>1.032868596042873</v>
       </c>
       <c r="K6">
-        <v>1.032290586295138</v>
+        <v>1.039967445751291</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>1.036691527948969</v>
       </c>
       <c r="M6">
-        <v>1.033633431556856</v>
+        <v>1.04371948309974</v>
       </c>
       <c r="N6">
-        <v>1.024525202947312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014950135365393</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.043173423947501</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.039344870345312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002981485564364</v>
+        <v>1.013375347920259</v>
       </c>
       <c r="D7">
-        <v>1.021748036044753</v>
+        <v>1.02984337433371</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.026120865604835</v>
       </c>
       <c r="F7">
-        <v>1.022874445083646</v>
+        <v>1.033309916588613</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042973088305313</v>
+        <v>1.049819086100442</v>
       </c>
       <c r="J7">
-        <v>1.022303168017952</v>
+        <v>1.03243702280127</v>
       </c>
       <c r="K7">
-        <v>1.031587964391905</v>
+        <v>1.039591594255594</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.035911034636366</v>
       </c>
       <c r="M7">
-        <v>1.032701505609148</v>
+        <v>1.043019406297529</v>
       </c>
       <c r="N7">
-        <v>1.02375495577635</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014807578890283</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.042619361931343</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039083312144213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9973316934999152</v>
+        <v>1.009243442810368</v>
       </c>
       <c r="D8">
-        <v>1.017636313436949</v>
+        <v>1.027150077563704</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>1.021699107135708</v>
       </c>
       <c r="F8">
-        <v>1.017781975178989</v>
+        <v>1.029245023551886</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041857476714482</v>
+        <v>1.048865793075086</v>
       </c>
       <c r="J8">
-        <v>1.01901758181192</v>
+        <v>1.03058686848711</v>
       </c>
       <c r="K8">
-        <v>1.028582573552157</v>
+        <v>1.037974425719114</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>1.032592958257354</v>
       </c>
       <c r="M8">
-        <v>1.028726347244599</v>
+        <v>1.040042904309527</v>
       </c>
       <c r="N8">
-        <v>1.020464703661043</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014195984248546</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.040263663245527</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.03794440485722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9869212745527043</v>
+        <v>1.001665431338172</v>
       </c>
       <c r="D9">
-        <v>1.010081530203863</v>
+        <v>1.022224261368581</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>1.013655199843759</v>
       </c>
       <c r="F9">
-        <v>1.008443511551188</v>
+        <v>1.02185512625458</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039717945959494</v>
+        <v>1.047031226602467</v>
       </c>
       <c r="J9">
-        <v>1.012944482820883</v>
+        <v>1.02715951569493</v>
       </c>
       <c r="K9">
-        <v>1.023013132115885</v>
+        <v>1.034966769939758</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>1.026530548854953</v>
       </c>
       <c r="M9">
-        <v>1.021401068103173</v>
+        <v>1.034603298681459</v>
       </c>
       <c r="N9">
-        <v>1.014382980172845</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013062712492346</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.035958565758545</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.035814613892668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9796424423914487</v>
+        <v>0.9964559386077824</v>
       </c>
       <c r="D10">
-        <v>1.004818035412059</v>
+        <v>1.018862660410045</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>1.008326685434136</v>
       </c>
       <c r="F10">
-        <v>1.001948089346481</v>
+        <v>1.016990458706838</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038168083185071</v>
+        <v>1.045733281276005</v>
       </c>
       <c r="J10">
-        <v>1.008687704877934</v>
+        <v>1.024810878066458</v>
       </c>
       <c r="K10">
-        <v>1.019100840246871</v>
+        <v>1.032899495594754</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>1.022547209067978</v>
       </c>
       <c r="M10">
-        <v>1.016282259295897</v>
+        <v>1.031059574910932</v>
       </c>
       <c r="N10">
-        <v>1.010120157116957</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012288919764674</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.033205692207681</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.034369755242952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9764023944548539</v>
+        <v>0.9945440134042158</v>
       </c>
       <c r="D11">
-        <v>1.002480489465317</v>
+        <v>1.017676697500095</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>1.007704225114064</v>
       </c>
       <c r="F11">
-        <v>0.9990656274648528</v>
+        <v>1.016646096188144</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037466049233236</v>
+        <v>1.045356455554972</v>
       </c>
       <c r="J11">
-        <v>1.006790913257389</v>
+        <v>1.024145542543501</v>
       </c>
       <c r="K11">
-        <v>1.017355778505993</v>
+        <v>1.03227278283159</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>1.022482298999198</v>
       </c>
       <c r="M11">
-        <v>1.014005186221374</v>
+        <v>1.031260773986208</v>
       </c>
       <c r="N11">
-        <v>1.008220671834746</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012086651691508</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.033803493764368</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.033959530841366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.975184905869833</v>
+        <v>0.9939738669176572</v>
       </c>
       <c r="D12">
-        <v>1.001603026595509</v>
+        <v>1.017336787496591</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>1.008122508236019</v>
       </c>
       <c r="F12">
-        <v>0.9979839120784858</v>
+        <v>1.017189232606509</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037200485000116</v>
+        <v>1.045288702898489</v>
       </c>
       <c r="J12">
-        <v>1.006077923783375</v>
+        <v>1.024035471441354</v>
       </c>
       <c r="K12">
-        <v>1.016699579452058</v>
+        <v>1.03213921239525</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>1.023095730909232</v>
       </c>
       <c r="M12">
-        <v>1.013149839348135</v>
+        <v>1.031994360864486</v>
       </c>
       <c r="N12">
-        <v>1.007506669833898</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012063030654759</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03471152477035</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.0338650919833</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.975446706680147</v>
+        <v>0.9944039629370315</v>
       </c>
       <c r="D13">
-        <v>1.001791668425168</v>
+        <v>1.017635468118363</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>1.009374455182047</v>
       </c>
       <c r="F13">
-        <v>0.9982164523591585</v>
+        <v>1.018464646582186</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037257669054493</v>
+        <v>1.045464232619123</v>
       </c>
       <c r="J13">
-        <v>1.006231250724628</v>
+        <v>1.024353564944479</v>
       </c>
       <c r="K13">
-        <v>1.016840704370692</v>
+        <v>1.03238949723313</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>1.024280794175567</v>
       </c>
       <c r="M13">
-        <v>1.013333753220208</v>
+        <v>1.033203565532944</v>
       </c>
       <c r="N13">
-        <v>1.007660214516994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012179102221443</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.035945177031007</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034039555943707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9763020462695327</v>
+        <v>0.9951570843802913</v>
       </c>
       <c r="D14">
-        <v>1.0024081481815</v>
+        <v>1.01813434525097</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>1.010615621977614</v>
       </c>
       <c r="F14">
-        <v>0.9989764410014913</v>
+        <v>1.01967838331395</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037444196384508</v>
+        <v>1.045696823506139</v>
       </c>
       <c r="J14">
-        <v>1.006732151760152</v>
+        <v>1.024768675630021</v>
       </c>
       <c r="K14">
-        <v>1.017301702249704</v>
+        <v>1.032738721575001</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>1.025356792067596</v>
       </c>
       <c r="M14">
-        <v>1.013934680234668</v>
+        <v>1.034254992171397</v>
       </c>
       <c r="N14">
-        <v>1.008161826889443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012323266012042</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.036950038692054</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.034287896083468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9768271726594564</v>
+        <v>0.9955611221918488</v>
       </c>
       <c r="D15">
-        <v>1.002786750429348</v>
+        <v>1.018399257071242</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>1.0111200367611</v>
       </c>
       <c r="F15">
-        <v>0.9994432153714788</v>
+        <v>1.020157391693397</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037558481638949</v>
+        <v>1.045809307457862</v>
       </c>
       <c r="J15">
-        <v>1.007039643467227</v>
+        <v>1.024967522303162</v>
       </c>
       <c r="K15">
-        <v>1.017584666868609</v>
+        <v>1.032912288016416</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782941</v>
+        <v>1.025764468863881</v>
       </c>
       <c r="M15">
-        <v>1.014303653430757</v>
+        <v>1.034639050526139</v>
       </c>
       <c r="N15">
-        <v>1.008469755270012</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012390578069738</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.037291206554385</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.034416492116307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9798555529137439</v>
+        <v>0.9976733830241512</v>
       </c>
       <c r="D16">
-        <v>1.00497190481115</v>
+        <v>1.019758563925825</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>1.013133518443198</v>
       </c>
       <c r="F16">
-        <v>1.002137870915102</v>
+        <v>1.021995241509936</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038214010549916</v>
+        <v>1.046335946152992</v>
       </c>
       <c r="J16">
-        <v>1.008812427406554</v>
+        <v>1.025902533843472</v>
       </c>
       <c r="K16">
-        <v>1.019215550841455</v>
+        <v>1.033744347924969</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175717</v>
+        <v>1.027233630584559</v>
       </c>
       <c r="M16">
-        <v>1.016432067835791</v>
+        <v>1.035942859425671</v>
       </c>
       <c r="N16">
-        <v>1.010245056765873</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012697026590446</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.038282945378614</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.03500796232481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9817310451912733</v>
+        <v>0.998902947159966</v>
       </c>
       <c r="D17">
-        <v>1.006326667908226</v>
+        <v>1.020543398953111</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>1.014031454321304</v>
       </c>
       <c r="F17">
-        <v>1.00380907312819</v>
+        <v>1.02276740874031</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038616821951782</v>
+        <v>1.046616787521711</v>
       </c>
       <c r="J17">
-        <v>1.009909838273499</v>
+        <v>1.02640334886667</v>
       </c>
       <c r="K17">
-        <v>1.020224669668381</v>
+        <v>1.034200567076439</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068056</v>
+        <v>1.027797854246825</v>
       </c>
       <c r="M17">
-        <v>1.017750643499217</v>
+        <v>1.036387681308198</v>
       </c>
       <c r="N17">
-        <v>1.011344026082124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012856859811863</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.03850526111282</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.035333119973199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9828165236353156</v>
+        <v>0.9994807325129169</v>
       </c>
       <c r="D18">
-        <v>1.007111271421533</v>
+        <v>1.020895207511914</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>1.013974916650678</v>
       </c>
       <c r="F18">
-        <v>1.004777150859066</v>
+        <v>1.022608114652431</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038848801101673</v>
+        <v>1.04670596016638</v>
       </c>
       <c r="J18">
-        <v>1.010544797386398</v>
+        <v>1.026563371511702</v>
       </c>
       <c r="K18">
-        <v>1.020808373761318</v>
+        <v>1.034362753137954</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>1.027556707454975</v>
       </c>
       <c r="M18">
-        <v>1.018513930818808</v>
+        <v>1.036047689108844</v>
       </c>
       <c r="N18">
-        <v>1.011979886909795</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012899925261736</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.037998230021303</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.035436140732632</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9831852293493277</v>
+        <v>0.9994755856078704</v>
       </c>
       <c r="D19">
-        <v>1.00737786215762</v>
+        <v>1.02086907374654</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>1.013041710896132</v>
       </c>
       <c r="F19">
-        <v>1.005106118642444</v>
+        <v>1.021591109353535</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038927399963</v>
+        <v>1.046631036261213</v>
       </c>
       <c r="J19">
-        <v>1.010760441177393</v>
+        <v>1.026423676142937</v>
       </c>
       <c r="K19">
-        <v>1.021006581004446</v>
+        <v>1.034274381294722</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>1.026575704608954</v>
       </c>
       <c r="M19">
-        <v>1.018773218446212</v>
+        <v>1.034984673840089</v>
       </c>
       <c r="N19">
-        <v>1.012195836939709</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012841923989278</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.036831126474764</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.035380061501932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9815307032516332</v>
+        <v>0.9978228383881598</v>
       </c>
       <c r="D20">
-        <v>1.006181897526851</v>
+        <v>1.019759112323965</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>1.009720190577311</v>
       </c>
       <c r="F20">
-        <v>1.003630466387609</v>
+        <v>1.018262225828819</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038573912761034</v>
+        <v>1.046087803446092</v>
       </c>
       <c r="J20">
-        <v>1.009792631056711</v>
+        <v>1.025437944710029</v>
       </c>
       <c r="K20">
-        <v>1.020116909769407</v>
+        <v>1.033463197309549</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>1.023594248684406</v>
       </c>
       <c r="M20">
-        <v>1.017609777405051</v>
+        <v>1.031991381118246</v>
       </c>
       <c r="N20">
-        <v>1.011226652417645</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012497628444468</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.033932506975042</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.034810444350292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9760505624014661</v>
+        <v>0.9938392042769303</v>
       </c>
       <c r="D21">
-        <v>1.002226867555841</v>
+        <v>1.017184302758202</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>1.005409180112833</v>
       </c>
       <c r="F21">
-        <v>0.9987529525719606</v>
+        <v>1.014283126112113</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037389402429128</v>
+        <v>1.045055295979979</v>
       </c>
       <c r="J21">
-        <v>1.006584885022178</v>
+        <v>1.02359678336292</v>
       </c>
       <c r="K21">
-        <v>1.017166173709056</v>
+        <v>1.031847266381176</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>1.020288793489343</v>
       </c>
       <c r="M21">
-        <v>1.013757989226788</v>
+        <v>1.028998860389779</v>
       </c>
       <c r="N21">
-        <v>1.00801435101581</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.01188786805149</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.031522986486371</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.033671144443557</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9725236363027653</v>
+        <v>0.9913036376141076</v>
       </c>
       <c r="D22">
-        <v>0.999686761113481</v>
+        <v>1.015546178143518</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>1.00275827748128</v>
       </c>
       <c r="F22">
-        <v>0.9956220947209339</v>
+        <v>1.011851732017779</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036616814532566</v>
+        <v>1.044390794267094</v>
       </c>
       <c r="J22">
-        <v>1.004519024902246</v>
+        <v>1.022430325629524</v>
       </c>
       <c r="K22">
-        <v>1.015264425882373</v>
+        <v>1.030815827577683</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>1.018275289678563</v>
       </c>
       <c r="M22">
-        <v>1.011280780527145</v>
+        <v>1.027192004096635</v>
       </c>
       <c r="N22">
-        <v>1.00594555713755</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011501780610144</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.030092961302572</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.032928341388218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9744012941989374</v>
+        <v>0.9926465262317493</v>
       </c>
       <c r="D23">
-        <v>1.001038530117464</v>
+        <v>1.016407834777927</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>1.004164568255394</v>
       </c>
       <c r="F23">
-        <v>0.9972880937605709</v>
+        <v>1.013142260244908</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037029069712517</v>
+        <v>1.044740324575472</v>
       </c>
       <c r="J23">
-        <v>1.005618959468683</v>
+        <v>1.023045465922424</v>
       </c>
       <c r="K23">
-        <v>1.016277106362111</v>
+        <v>1.031355657709065</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>1.019343063043405</v>
       </c>
       <c r="M23">
-        <v>1.012599404061241</v>
+        <v>1.028150897281369</v>
       </c>
       <c r="N23">
-        <v>1.007047053737236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011704614075361</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.030851871720277</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.033300375818601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9816212552551216</v>
+        <v>0.9978414758242502</v>
       </c>
       <c r="D24">
-        <v>1.006247330327505</v>
+        <v>1.0197587109084</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>1.009617064427987</v>
       </c>
       <c r="F24">
-        <v>1.003711191771059</v>
+        <v>1.018146335139805</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038593310756697</v>
+        <v>1.046076870662653</v>
       </c>
       <c r="J24">
-        <v>1.009845607815339</v>
+        <v>1.025422870302734</v>
       </c>
       <c r="K24">
-        <v>1.020165616940388</v>
+        <v>1.033447504392808</v>
       </c>
       <c r="L24">
-        <v>0.953371659644254</v>
+        <v>1.023477372571561</v>
       </c>
       <c r="M24">
-        <v>1.017673446669722</v>
+        <v>1.031862102520337</v>
       </c>
       <c r="N24">
-        <v>1.011279704409347</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012490008236435</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.033789075677642</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.034771904502116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9896697568443918</v>
+        <v>1.003670639066016</v>
       </c>
       <c r="D25">
-        <v>1.012073168763976</v>
+        <v>1.023534560167154</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>1.01577060380423</v>
       </c>
       <c r="F25">
-        <v>1.010903395211849</v>
+        <v>1.023797041333234</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040292314712333</v>
+        <v>1.047532071613055</v>
       </c>
       <c r="J25">
-        <v>1.014549847270201</v>
+        <v>1.028075099890212</v>
       </c>
       <c r="K25">
-        <v>1.024486911375778</v>
+        <v>1.035778196295454</v>
       </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>1.028128936750433</v>
       </c>
       <c r="M25">
-        <v>1.023334775515749</v>
+        <v>1.036036838409561</v>
       </c>
       <c r="N25">
-        <v>1.015990624423819</v>
+        <v>1.013366589003364</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.037093122638599</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.036416963126873</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008151716634502</v>
+        <v>1.007814979885004</v>
       </c>
       <c r="D2">
-        <v>1.026431583292838</v>
+        <v>1.025641292314051</v>
       </c>
       <c r="E2">
-        <v>1.020540319710172</v>
+        <v>1.020457685428177</v>
       </c>
       <c r="F2">
-        <v>1.028180672925371</v>
+        <v>1.028068077050614</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048603013570075</v>
+        <v>1.048219110214047</v>
       </c>
       <c r="J2">
-        <v>1.030091315228727</v>
+        <v>1.029764432554032</v>
       </c>
       <c r="K2">
-        <v>1.037534567424043</v>
+        <v>1.036754597355151</v>
       </c>
       <c r="L2">
-        <v>1.031720723988027</v>
+        <v>1.031639183621364</v>
       </c>
       <c r="M2">
-        <v>1.039260885219959</v>
+        <v>1.039149752337684</v>
       </c>
       <c r="N2">
-        <v>1.014031229398504</v>
+        <v>1.015163957338503</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.039644747099836</v>
+        <v>1.039556792764856</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03761045641884</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037067734408731</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021894183152522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011333836186963</v>
+        <v>1.010895713632247</v>
       </c>
       <c r="D3">
-        <v>1.028504159867599</v>
+        <v>1.027573281048964</v>
       </c>
       <c r="E3">
-        <v>1.023938045921948</v>
+        <v>1.023826896665074</v>
       </c>
       <c r="F3">
-        <v>1.031303572621217</v>
+        <v>1.031157067021747</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04934744342679</v>
+        <v>1.048884403756797</v>
       </c>
       <c r="J3">
-        <v>1.031520226582491</v>
+        <v>1.031093694073535</v>
       </c>
       <c r="K3">
-        <v>1.038784866015597</v>
+        <v>1.037865105518931</v>
       </c>
       <c r="L3">
-        <v>1.034273529611818</v>
+        <v>1.034163721322795</v>
       </c>
       <c r="M3">
-        <v>1.041550992717851</v>
+        <v>1.041406223571046</v>
       </c>
       <c r="N3">
-        <v>1.014503626025069</v>
+        <v>1.015513258423963</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.041457213510229</v>
+        <v>1.041342638579836</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038491858408585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037850017549499</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022089345469445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013356862876922</v>
+        <v>1.012854827505753</v>
       </c>
       <c r="D4">
-        <v>1.029824666768131</v>
+        <v>1.028804831186872</v>
       </c>
       <c r="E4">
-        <v>1.026105610754528</v>
+        <v>1.025976665880685</v>
       </c>
       <c r="F4">
-        <v>1.033296281211327</v>
+        <v>1.033128446460283</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.04981048201499</v>
+        <v>1.049297279091558</v>
       </c>
       <c r="J4">
-        <v>1.032424961836979</v>
+        <v>1.031935325070255</v>
       </c>
       <c r="K4">
-        <v>1.039575981817868</v>
+        <v>1.038567605956168</v>
       </c>
       <c r="L4">
-        <v>1.035898851697709</v>
+        <v>1.035771367173255</v>
       </c>
       <c r="M4">
-        <v>1.043008794949165</v>
+        <v>1.042842828662041</v>
       </c>
       <c r="N4">
-        <v>1.014802844892436</v>
+        <v>1.015734522884695</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.042610963785132</v>
+        <v>1.042479612967917</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.03905214239488</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038347726134946</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02221023556898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014201145829748</v>
+        <v>1.013672576635319</v>
       </c>
       <c r="D5">
-        <v>1.03037845677198</v>
+        <v>1.029321651576032</v>
       </c>
       <c r="E5">
-        <v>1.027010597889898</v>
+        <v>1.026874299502533</v>
       </c>
       <c r="F5">
-        <v>1.034128260963054</v>
+        <v>1.033951580685513</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050002587424229</v>
+        <v>1.049468509847167</v>
       </c>
       <c r="J5">
-        <v>1.032802803505441</v>
+        <v>1.032286905132414</v>
       </c>
       <c r="K5">
-        <v>1.039907794480429</v>
+        <v>1.038862553875442</v>
       </c>
       <c r="L5">
-        <v>1.036576891890164</v>
+        <v>1.036442095408045</v>
       </c>
       <c r="M5">
-        <v>1.043616798623019</v>
+        <v>1.043442032580549</v>
       </c>
       <c r="N5">
-        <v>1.014928058374842</v>
+        <v>1.015827153012281</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.04309215636439</v>
+        <v>1.042953841241423</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039293939213872</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038564168367105</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022260767805394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014345103781236</v>
+        <v>1.013812036730432</v>
       </c>
       <c r="D6">
-        <v>1.030475389362019</v>
+        <v>1.029412354962318</v>
       </c>
       <c r="E6">
-        <v>1.027163293469045</v>
+        <v>1.027025741241235</v>
       </c>
       <c r="F6">
-        <v>1.034268510060387</v>
+        <v>1.034090329528458</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050036842655797</v>
+        <v>1.049499239449449</v>
       </c>
       <c r="J6">
-        <v>1.032868596042873</v>
+        <v>1.032348243113845</v>
       </c>
       <c r="K6">
-        <v>1.039967445751291</v>
+        <v>1.038915991757825</v>
       </c>
       <c r="L6">
-        <v>1.036691527948969</v>
+        <v>1.036555484405153</v>
       </c>
       <c r="M6">
-        <v>1.04371948309974</v>
+        <v>1.043543224172797</v>
       </c>
       <c r="N6">
-        <v>1.014950135365393</v>
+        <v>1.015843527581545</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.043173423947501</v>
+        <v>1.043033927326153</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039344870345312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038611575539596</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022270375527561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013375347920259</v>
+        <v>1.012879266418915</v>
       </c>
       <c r="D7">
-        <v>1.02984337433371</v>
+        <v>1.028827508735097</v>
       </c>
       <c r="E7">
-        <v>1.026120865604835</v>
+        <v>1.025994170919241</v>
       </c>
       <c r="F7">
-        <v>1.033309916588613</v>
+        <v>1.033144121353276</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049819086100442</v>
+        <v>1.049308885969761</v>
       </c>
       <c r="J7">
-        <v>1.03243702280127</v>
+        <v>1.031953187695891</v>
       </c>
       <c r="K7">
-        <v>1.039591594255594</v>
+        <v>1.038587139394603</v>
       </c>
       <c r="L7">
-        <v>1.035911034636366</v>
+        <v>1.035785774280541</v>
       </c>
       <c r="M7">
-        <v>1.043019406297529</v>
+        <v>1.04285545614137</v>
       </c>
       <c r="N7">
-        <v>1.014807578890283</v>
+        <v>1.015765541782732</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.042619361931343</v>
+        <v>1.042489606743742</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039083312144213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038383668442347</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022215417210882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009243442810368</v>
+        <v>1.008891636119178</v>
       </c>
       <c r="D8">
-        <v>1.027150077563704</v>
+        <v>1.026325692426199</v>
       </c>
       <c r="E8">
-        <v>1.021699107135708</v>
+        <v>1.02161421134948</v>
       </c>
       <c r="F8">
-        <v>1.029245023551886</v>
+        <v>1.02912752682194</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048865793075086</v>
+        <v>1.04846507454161</v>
       </c>
       <c r="J8">
-        <v>1.03058686848711</v>
+        <v>1.030245017812848</v>
       </c>
       <c r="K8">
-        <v>1.037974425719114</v>
+        <v>1.037160492793325</v>
       </c>
       <c r="L8">
-        <v>1.032592958257354</v>
+        <v>1.032509152273505</v>
       </c>
       <c r="M8">
-        <v>1.040042904309527</v>
+        <v>1.039926888466119</v>
       </c>
       <c r="N8">
-        <v>1.014195984248546</v>
+        <v>1.01536916110824</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.040263663245527</v>
+        <v>1.040171844448134</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03794440485722</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037379936997569</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021969128310931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001665431338172</v>
+        <v>1.001561078915334</v>
       </c>
       <c r="D9">
-        <v>1.022224261368581</v>
+        <v>1.021738856824744</v>
       </c>
       <c r="E9">
-        <v>1.013655199843759</v>
+        <v>1.013641701771946</v>
       </c>
       <c r="F9">
-        <v>1.02185512625458</v>
+        <v>1.02182074317618</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047031226602467</v>
+        <v>1.046821090101558</v>
       </c>
       <c r="J9">
-        <v>1.02715951569493</v>
+        <v>1.027058831640542</v>
       </c>
       <c r="K9">
-        <v>1.034966769939758</v>
+        <v>1.034488814322951</v>
       </c>
       <c r="L9">
-        <v>1.026530548854953</v>
+        <v>1.026517262300862</v>
       </c>
       <c r="M9">
-        <v>1.034603298681459</v>
+        <v>1.034569443428567</v>
       </c>
       <c r="N9">
-        <v>1.013062712492346</v>
+        <v>1.014541182785106</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.035958565758545</v>
+        <v>1.035931771425078</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035814613892668</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035487421035757</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02148393233847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9964559386077824</v>
+        <v>0.996552306880077</v>
       </c>
       <c r="D10">
-        <v>1.018862660410045</v>
+        <v>1.018631282398177</v>
       </c>
       <c r="E10">
-        <v>1.008326685434136</v>
+        <v>1.008375256171293</v>
       </c>
       <c r="F10">
-        <v>1.016990458706838</v>
+        <v>1.017023914521375</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045733281276005</v>
+        <v>1.045668761351009</v>
       </c>
       <c r="J10">
-        <v>1.024810878066458</v>
+        <v>1.024903384753055</v>
       </c>
       <c r="K10">
-        <v>1.032899495594754</v>
+        <v>1.032672098757609</v>
       </c>
       <c r="L10">
-        <v>1.022547209067978</v>
+        <v>1.022594921581986</v>
       </c>
       <c r="M10">
-        <v>1.031059574910932</v>
+        <v>1.031092452521971</v>
       </c>
       <c r="N10">
-        <v>1.012288919764674</v>
+        <v>1.014093039242528</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.033205692207681</v>
+        <v>1.033231711255791</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.034369755242952</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034221400253639</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021146077373791</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9945440134042158</v>
+        <v>0.9947516009358581</v>
       </c>
       <c r="D11">
-        <v>1.017676697500095</v>
+        <v>1.017559593339264</v>
       </c>
       <c r="E11">
-        <v>1.007704225114064</v>
+        <v>1.007786470094076</v>
       </c>
       <c r="F11">
-        <v>1.016646096188144</v>
+        <v>1.016715936273303</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045356455554972</v>
+        <v>1.045362543609384</v>
       </c>
       <c r="J11">
-        <v>1.024145542543501</v>
+        <v>1.024344361239436</v>
       </c>
       <c r="K11">
-        <v>1.03227278283159</v>
+        <v>1.032157788812274</v>
       </c>
       <c r="L11">
-        <v>1.022482298999198</v>
+        <v>1.022563023882211</v>
       </c>
       <c r="M11">
-        <v>1.031260773986208</v>
+        <v>1.031329352579914</v>
       </c>
       <c r="N11">
-        <v>1.012086651691508</v>
+        <v>1.014185540795734</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.033803493764368</v>
+        <v>1.033857738628375</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033959530841366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033893864950862</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021073409010099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9939738669176572</v>
+        <v>0.9942186259519669</v>
       </c>
       <c r="D12">
-        <v>1.017336787496591</v>
+        <v>1.017253797172667</v>
       </c>
       <c r="E12">
-        <v>1.008122508236019</v>
+        <v>1.008212782171453</v>
       </c>
       <c r="F12">
-        <v>1.017189232606509</v>
+        <v>1.017270336854956</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045288702898489</v>
+        <v>1.045316893661663</v>
       </c>
       <c r="J12">
-        <v>1.024035471441354</v>
+        <v>1.024269695432578</v>
       </c>
       <c r="K12">
-        <v>1.03213921239525</v>
+        <v>1.032057742414852</v>
       </c>
       <c r="L12">
-        <v>1.023095730909232</v>
+        <v>1.023184311735123</v>
       </c>
       <c r="M12">
-        <v>1.031994360864486</v>
+        <v>1.0320739790722</v>
       </c>
       <c r="N12">
-        <v>1.012063030654759</v>
+        <v>1.014275689371487</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03471152477035</v>
+        <v>1.034774480337168</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.0338650919833</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033823130205769</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021070637269767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9944039629370315</v>
+        <v>0.9946223878263658</v>
       </c>
       <c r="D13">
-        <v>1.017635468118363</v>
+        <v>1.017521020691614</v>
       </c>
       <c r="E13">
-        <v>1.009374455182047</v>
+        <v>1.009451444048577</v>
       </c>
       <c r="F13">
-        <v>1.018464646582186</v>
+        <v>1.018536051409525</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045464232619123</v>
+        <v>1.045474209495904</v>
       </c>
       <c r="J13">
-        <v>1.024353564944479</v>
+        <v>1.024562633924319</v>
       </c>
       <c r="K13">
-        <v>1.03238949723313</v>
+        <v>1.032277137905595</v>
       </c>
       <c r="L13">
-        <v>1.024280794175567</v>
+        <v>1.024356348568132</v>
       </c>
       <c r="M13">
-        <v>1.033203565532944</v>
+        <v>1.033273670643392</v>
       </c>
       <c r="N13">
-        <v>1.012179102221443</v>
+        <v>1.014337648804966</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.035945177031007</v>
+        <v>1.036000596418138</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034039555943707</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033975508655233</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02112485014303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9951570843802913</v>
+        <v>0.995328617260963</v>
       </c>
       <c r="D14">
-        <v>1.01813434525097</v>
+        <v>1.017968524352473</v>
       </c>
       <c r="E14">
-        <v>1.010615621977614</v>
+        <v>1.01067479437628</v>
       </c>
       <c r="F14">
-        <v>1.01967838331395</v>
+        <v>1.019733857125392</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045696823506139</v>
+        <v>1.045675982630112</v>
       </c>
       <c r="J14">
-        <v>1.024768675630021</v>
+        <v>1.024932964664702</v>
       </c>
       <c r="K14">
-        <v>1.032738721575001</v>
+        <v>1.032575889255136</v>
       </c>
       <c r="L14">
-        <v>1.025356792067596</v>
+        <v>1.025414877547827</v>
       </c>
       <c r="M14">
-        <v>1.034254992171397</v>
+        <v>1.034309470393252</v>
       </c>
       <c r="N14">
-        <v>1.012323266012042</v>
+        <v>1.014369085428174</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.036950038692054</v>
+        <v>1.036993098913419</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034287896083468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034188296865835</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021188799246886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9955611221918488</v>
+        <v>0.9957078178857219</v>
       </c>
       <c r="D15">
-        <v>1.018399257071242</v>
+        <v>1.018206867143792</v>
       </c>
       <c r="E15">
-        <v>1.0111200367611</v>
+        <v>1.011170860184601</v>
       </c>
       <c r="F15">
-        <v>1.020157391693397</v>
+        <v>1.020204637402689</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045809307457862</v>
+        <v>1.04577235446247</v>
       </c>
       <c r="J15">
-        <v>1.024967522303162</v>
+        <v>1.025108076255975</v>
       </c>
       <c r="K15">
-        <v>1.032912288016416</v>
+        <v>1.032723339631238</v>
       </c>
       <c r="L15">
-        <v>1.025764468863881</v>
+        <v>1.025814366310963</v>
       </c>
       <c r="M15">
-        <v>1.034639050526139</v>
+        <v>1.034685455120538</v>
       </c>
       <c r="N15">
-        <v>1.012390578069738</v>
+        <v>1.014374796937891</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.037291206554385</v>
+        <v>1.037327884322938</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034416492116307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034298996935928</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021218303107171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9976733830241512</v>
+        <v>0.9976981807734608</v>
       </c>
       <c r="D16">
-        <v>1.019758563925825</v>
+        <v>1.019435565426848</v>
       </c>
       <c r="E16">
-        <v>1.013133518443198</v>
+        <v>1.013147446233852</v>
       </c>
       <c r="F16">
-        <v>1.021995241509936</v>
+        <v>1.022002656488408</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046335946152992</v>
+        <v>1.046219641485819</v>
       </c>
       <c r="J16">
-        <v>1.025902533843472</v>
+        <v>1.02592634442378</v>
       </c>
       <c r="K16">
-        <v>1.033744347924969</v>
+        <v>1.033426878870887</v>
       </c>
       <c r="L16">
-        <v>1.027233630584559</v>
+        <v>1.027247315993505</v>
       </c>
       <c r="M16">
-        <v>1.035942859425671</v>
+        <v>1.035950148235627</v>
       </c>
       <c r="N16">
-        <v>1.012697026590446</v>
+        <v>1.014382826536622</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.038282945378614</v>
+        <v>1.038288706553619</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.03500796232481</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.03479989801534</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021347823114538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.998902947159966</v>
+        <v>0.9988659049011197</v>
       </c>
       <c r="D17">
-        <v>1.020543398953111</v>
+        <v>1.020151955195551</v>
       </c>
       <c r="E17">
-        <v>1.014031454321304</v>
+        <v>1.014027883295937</v>
       </c>
       <c r="F17">
-        <v>1.02276740874031</v>
+        <v>1.022754596449617</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046616787521711</v>
+        <v>1.04645928510412</v>
       </c>
       <c r="J17">
-        <v>1.02640334886667</v>
+        <v>1.026367734580162</v>
       </c>
       <c r="K17">
-        <v>1.034200567076439</v>
+        <v>1.033815638680593</v>
       </c>
       <c r="L17">
-        <v>1.027797854246825</v>
+        <v>1.027794343618713</v>
       </c>
       <c r="M17">
-        <v>1.036387681308198</v>
+        <v>1.036375080977521</v>
       </c>
       <c r="N17">
-        <v>1.012856859811863</v>
+        <v>1.014401250060281</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.03850526111282</v>
+        <v>1.038495300644434</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035333119973199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035077607083264</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021414407280668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9994807325129169</v>
+        <v>0.9994193714417747</v>
       </c>
       <c r="D18">
-        <v>1.020895207511914</v>
+        <v>1.020476911763888</v>
       </c>
       <c r="E18">
-        <v>1.013974916650678</v>
+        <v>1.013965728695692</v>
       </c>
       <c r="F18">
-        <v>1.022608114652431</v>
+        <v>1.022587413727677</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04670596016638</v>
+        <v>1.046532187104123</v>
       </c>
       <c r="J18">
-        <v>1.026563371511702</v>
+        <v>1.026504332184638</v>
       </c>
       <c r="K18">
-        <v>1.034362753137954</v>
+        <v>1.033951306351884</v>
       </c>
       <c r="L18">
-        <v>1.027556707454975</v>
+        <v>1.027547672516597</v>
       </c>
       <c r="M18">
-        <v>1.036047689108844</v>
+        <v>1.036027325504147</v>
       </c>
       <c r="N18">
-        <v>1.012899925261736</v>
+        <v>1.014389372705052</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.037998230021303</v>
+        <v>1.037982129375342</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035436140732632</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035160743021925</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021428155966636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9994755856078704</v>
+        <v>0.9994187728983351</v>
       </c>
       <c r="D19">
-        <v>1.02086907374654</v>
+        <v>1.02045805925712</v>
       </c>
       <c r="E19">
-        <v>1.013041710896132</v>
+        <v>1.013036083960437</v>
       </c>
       <c r="F19">
-        <v>1.021591109353535</v>
+        <v>1.021572141739075</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046631036261213</v>
+        <v>1.04646101210312</v>
       </c>
       <c r="J19">
-        <v>1.026423676142937</v>
+        <v>1.026369000522979</v>
       </c>
       <c r="K19">
-        <v>1.034274381294722</v>
+        <v>1.03387006100994</v>
       </c>
       <c r="L19">
-        <v>1.026575704608954</v>
+        <v>1.026570171104212</v>
       </c>
       <c r="M19">
-        <v>1.034984673840089</v>
+        <v>1.034966014438918</v>
       </c>
       <c r="N19">
-        <v>1.012841923989278</v>
+        <v>1.014333845324532</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.036831126474764</v>
+        <v>1.036816368421533</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035380061501932</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035110327062235</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021397933319721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9978228383881598</v>
+        <v>0.9978488264256844</v>
       </c>
       <c r="D20">
-        <v>1.019759112323965</v>
+        <v>1.01944888866835</v>
       </c>
       <c r="E20">
-        <v>1.009720190577311</v>
+        <v>1.009744894674846</v>
       </c>
       <c r="F20">
-        <v>1.018262225828819</v>
+        <v>1.018271732885471</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046087803446092</v>
+        <v>1.04597614897711</v>
       </c>
       <c r="J20">
-        <v>1.025437944710029</v>
+        <v>1.025462924803026</v>
       </c>
       <c r="K20">
-        <v>1.033463197309549</v>
+        <v>1.033158161578478</v>
       </c>
       <c r="L20">
-        <v>1.023594248684406</v>
+        <v>1.023618529145532</v>
       </c>
       <c r="M20">
-        <v>1.031991381118246</v>
+        <v>1.032000728648024</v>
       </c>
       <c r="N20">
-        <v>1.012497628444468</v>
+        <v>1.014143444228338</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.033932506975042</v>
+        <v>1.03393990461528</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034810444350292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034611297402218</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021238976696939</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9938392042769303</v>
+        <v>0.994105176684135</v>
       </c>
       <c r="D21">
-        <v>1.017184302758202</v>
+        <v>1.017130233188407</v>
       </c>
       <c r="E21">
-        <v>1.005409180112833</v>
+        <v>1.005519932965895</v>
       </c>
       <c r="F21">
-        <v>1.014283126112113</v>
+        <v>1.014374366580931</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045055295979979</v>
+        <v>1.045099363091575</v>
       </c>
       <c r="J21">
-        <v>1.02359678336292</v>
+        <v>1.023851442400356</v>
       </c>
       <c r="K21">
-        <v>1.031847266381176</v>
+        <v>1.031794176723665</v>
       </c>
       <c r="L21">
-        <v>1.020288793489343</v>
+        <v>1.020397477756144</v>
       </c>
       <c r="M21">
-        <v>1.028998860389779</v>
+        <v>1.029088435265128</v>
       </c>
       <c r="N21">
-        <v>1.01188786805149</v>
+        <v>1.014133596975821</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.031522986486371</v>
+        <v>1.031593879888362</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.033671144443557</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033650460808969</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020981866689736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9913036376141076</v>
+        <v>0.9917200060715926</v>
       </c>
       <c r="D22">
-        <v>1.015546178143518</v>
+        <v>1.015652922431948</v>
       </c>
       <c r="E22">
-        <v>1.00275827748128</v>
+        <v>1.002925077949583</v>
       </c>
       <c r="F22">
-        <v>1.011851732017779</v>
+        <v>1.011994240744851</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044390794267094</v>
+        <v>1.044532220469649</v>
       </c>
       <c r="J22">
-        <v>1.022430325629524</v>
+        <v>1.022827967828908</v>
       </c>
       <c r="K22">
-        <v>1.030815827577683</v>
+        <v>1.030920541341187</v>
       </c>
       <c r="L22">
-        <v>1.018275289678563</v>
+        <v>1.018438810335548</v>
       </c>
       <c r="M22">
-        <v>1.027192004096635</v>
+        <v>1.027331776123279</v>
       </c>
       <c r="N22">
-        <v>1.011501780610144</v>
+        <v>1.014119982320547</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.030092961302572</v>
+        <v>1.030203583109378</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.032928341388218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033017931177379</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020814735379824</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9926465262317493</v>
+        <v>0.9929734377243217</v>
       </c>
       <c r="D23">
-        <v>1.016407834777927</v>
+        <v>1.016422395010669</v>
       </c>
       <c r="E23">
-        <v>1.004164568255394</v>
+        <v>1.004297064982074</v>
       </c>
       <c r="F23">
-        <v>1.013142260244908</v>
+        <v>1.013254320913212</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044740324575472</v>
+        <v>1.044825148771048</v>
       </c>
       <c r="J23">
-        <v>1.023045465922424</v>
+        <v>1.023358099437117</v>
       </c>
       <c r="K23">
-        <v>1.031355657709065</v>
+        <v>1.031369947930771</v>
       </c>
       <c r="L23">
-        <v>1.019343063043405</v>
+        <v>1.019473024038648</v>
       </c>
       <c r="M23">
-        <v>1.028150897281369</v>
+        <v>1.028260862589761</v>
       </c>
       <c r="N23">
-        <v>1.011704614075361</v>
+        <v>1.014084186609449</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.030851871720277</v>
+        <v>1.030938903069208</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.033300375818601</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.033325089557507</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020899428351155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9978414758242502</v>
+        <v>0.9978669046852375</v>
       </c>
       <c r="D24">
-        <v>1.0197587109084</v>
+        <v>1.019448015378791</v>
       </c>
       <c r="E24">
-        <v>1.009617064427987</v>
+        <v>1.009641970685528</v>
       </c>
       <c r="F24">
-        <v>1.018146335139805</v>
+        <v>1.018155748097344</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046076870662653</v>
+        <v>1.04596488927025</v>
       </c>
       <c r="J24">
-        <v>1.025422870302734</v>
+        <v>1.025447314344074</v>
       </c>
       <c r="K24">
-        <v>1.033447504392808</v>
+        <v>1.033141998025966</v>
       </c>
       <c r="L24">
-        <v>1.023477372571561</v>
+        <v>1.023501852162619</v>
       </c>
       <c r="M24">
-        <v>1.031862102520337</v>
+        <v>1.031871357686235</v>
       </c>
       <c r="N24">
-        <v>1.012490008236435</v>
+        <v>1.01413346648903</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.033789075677642</v>
+        <v>1.033796400589912</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034771904502116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034569751558935</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021232339290622</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003670639066016</v>
+        <v>1.003492474762106</v>
       </c>
       <c r="D25">
-        <v>1.023534560167154</v>
+        <v>1.022953772854772</v>
       </c>
       <c r="E25">
-        <v>1.01577060380423</v>
+        <v>1.015734689541113</v>
       </c>
       <c r="F25">
-        <v>1.023797041333234</v>
+        <v>1.023737728706723</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047532071613055</v>
+        <v>1.047267430701491</v>
       </c>
       <c r="J25">
-        <v>1.028075099890212</v>
+        <v>1.027902872148168</v>
       </c>
       <c r="K25">
-        <v>1.035778196295454</v>
+        <v>1.035205912471574</v>
       </c>
       <c r="L25">
-        <v>1.028128936750433</v>
+        <v>1.028093558229845</v>
       </c>
       <c r="M25">
-        <v>1.036036838409561</v>
+        <v>1.035978393071605</v>
       </c>
       <c r="N25">
-        <v>1.013366589003364</v>
+        <v>1.014731150891039</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.037093122638599</v>
+        <v>1.037046866850757</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.036416963126873</v>
+        <v>1.036025879957016</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02161768092766</v>
       </c>
     </row>
   </sheetData>
